--- a/xlsx/stat-top-by-friends-count.xlsx
+++ b/xlsx/stat-top-by-friends-count.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Топ-171 по числу друзей" r:id="rId3" sheetId="1"/>
+    <sheet name="Топ-229 по числу друзей" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="232">
   <si>
     <t>#</t>
   </si>
@@ -92,7 +92,7 @@
     <t>nYmpHz</t>
   </si>
   <si>
-    <t>10–171</t>
+    <t>10–229</t>
   </si>
   <si>
     <t>Deniss</t>
@@ -239,36 +239,69 @@
     <t>rosetina</t>
   </si>
   <si>
+    <t>Nemic</t>
+  </si>
+  <si>
     <t>Kuri</t>
   </si>
   <si>
+    <t>Sapuns</t>
+  </si>
+  <si>
     <t>hootty</t>
   </si>
   <si>
+    <t>SmileOmsk</t>
+  </si>
+  <si>
     <t>Sapelka</t>
   </si>
   <si>
+    <t>DronD</t>
+  </si>
+  <si>
     <t>JoInGaMe</t>
   </si>
   <si>
+    <t>pulpik</t>
+  </si>
+  <si>
+    <t>Gosha</t>
+  </si>
+  <si>
     <t>gunner741</t>
   </si>
   <si>
     <t>GTR</t>
   </si>
   <si>
+    <t>Love25</t>
+  </si>
+  <si>
+    <t>XAH</t>
+  </si>
+  <si>
     <t>Goodies</t>
   </si>
   <si>
+    <t>Gigantop</t>
+  </si>
+  <si>
     <t>mizzam</t>
   </si>
   <si>
     <t>darkloki</t>
   </si>
   <si>
+    <t>nebella</t>
+  </si>
+  <si>
     <t>sharma</t>
   </si>
   <si>
+    <t>Mekor</t>
+  </si>
+  <si>
     <t>Talira</t>
   </si>
   <si>
@@ -278,9 +311,18 @@
     <t>Wunder</t>
   </si>
   <si>
+    <t>XsIDe</t>
+  </si>
+  <si>
     <t>???????</t>
   </si>
   <si>
+    <t>Dron13</t>
+  </si>
+  <si>
+    <t>edk2005</t>
+  </si>
+  <si>
     <t>ReAlIsT</t>
   </si>
   <si>
@@ -293,24 +335,48 @@
     <t>Edelveis</t>
   </si>
   <si>
+    <t>Irma_Aisha</t>
+  </si>
+  <si>
     <t>gasho</t>
   </si>
   <si>
+    <t>4ever</t>
+  </si>
+  <si>
+    <t>Alerator</t>
+  </si>
+  <si>
+    <t>tarasyk</t>
+  </si>
+  <si>
     <t>???????????</t>
   </si>
   <si>
+    <t>bu_</t>
+  </si>
+  <si>
     <t>afinik</t>
   </si>
   <si>
     <t>Draven</t>
   </si>
   <si>
+    <t>JustLook</t>
+  </si>
+  <si>
     <t>polevogo</t>
   </si>
   <si>
+    <t>MEN</t>
+  </si>
+  <si>
     <t>MeJI</t>
   </si>
   <si>
+    <t>kreech</t>
+  </si>
+  <si>
     <t>lihoi</t>
   </si>
   <si>
@@ -323,73 +389,172 @@
     <t>Ejik66</t>
   </si>
   <si>
+    <t>?_??</t>
+  </si>
+  <si>
     <t>GluK24</t>
   </si>
   <si>
     <t>????</t>
   </si>
   <si>
+    <t>Satira89</t>
+  </si>
+  <si>
+    <t>AlexSENT</t>
+  </si>
+  <si>
     <t>antibiotic</t>
   </si>
   <si>
+    <t>5555555860</t>
+  </si>
+  <si>
     <t>Igrok_simfer</t>
   </si>
   <si>
+    <t>Ch3Ry</t>
+  </si>
+  <si>
+    <t>Nikol1</t>
+  </si>
+  <si>
+    <t>bard</t>
+  </si>
+  <si>
+    <t>kopeika</t>
+  </si>
+  <si>
+    <t>Burunduk</t>
+  </si>
+  <si>
+    <t>?????</t>
+  </si>
+  <si>
     <t>NAREG</t>
   </si>
   <si>
+    <t>Slowhand</t>
+  </si>
+  <si>
     <t>new_russian</t>
   </si>
   <si>
-    <t>?????</t>
+    <t>Givchik</t>
+  </si>
+  <si>
+    <t>Absentos</t>
+  </si>
+  <si>
+    <t>tender1735</t>
+  </si>
+  <si>
+    <t>Lisaped</t>
   </si>
   <si>
     <t>den4900</t>
   </si>
   <si>
+    <t>abadonnah</t>
+  </si>
+  <si>
+    <t>izyakin</t>
+  </si>
+  <si>
     <t>DenMos</t>
   </si>
   <si>
+    <t>shick84</t>
+  </si>
+  <si>
     <t>dobryak</t>
   </si>
   <si>
+    <t>peterfom</t>
+  </si>
+  <si>
+    <t>Ketrikken</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
     <t>Blancochocolate</t>
   </si>
   <si>
+    <t>zombezzzy</t>
+  </si>
+  <si>
     <t>???</t>
   </si>
   <si>
+    <t>anrealboy</t>
+  </si>
+  <si>
+    <t>falcone</t>
+  </si>
+  <si>
+    <t>savae2004</t>
+  </si>
+  <si>
     <t>?????????</t>
   </si>
   <si>
+    <t>Merkwurdigliebe</t>
+  </si>
+  <si>
+    <t>jackerZ</t>
+  </si>
+  <si>
     <t>Kotleta</t>
   </si>
   <si>
     <t>_gr_</t>
   </si>
   <si>
+    <t>fyametta</t>
+  </si>
+  <si>
     <t>kbalyasnikov</t>
   </si>
   <si>
+    <t>EwGesha</t>
+  </si>
+  <si>
     <t>lollol</t>
   </si>
   <si>
+    <t>prometeus</t>
+  </si>
+  <si>
     <t>mr_boo</t>
   </si>
   <si>
     <t>gall3</t>
   </si>
   <si>
+    <t>primer</t>
+  </si>
+  <si>
     <t>TemeP</t>
   </si>
   <si>
     <t>Hunn</t>
   </si>
   <si>
+    <t>Steelhound</t>
+  </si>
+  <si>
     <t>??????????????</t>
   </si>
   <si>
+    <t>RAZVALUTION</t>
+  </si>
+  <si>
     <t>jmeleshkina</t>
+  </si>
+  <si>
+    <t>sonata-vivo</t>
   </si>
   <si>
     <t>newfather</t>
@@ -1127,7 +1292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K172"/>
+  <dimension ref="A1:K230"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3215,26 +3380,26 @@
       <c r="A60" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="19" t="s">
         <v>75</v>
       </c>
       <c r="C60" s="13" t="n">
-        <v>30046.0</v>
+        <v>30301.0</v>
       </c>
       <c r="D60" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E60" s="3" t="n">
-        <v>198.0</v>
+        <v>225.0</v>
       </c>
       <c r="F60" s="3" t="n">
-        <v>4.0</v>
+        <v>19.0</v>
       </c>
       <c r="G60" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I60" s="3" t="n">
         <v>1.0</v>
@@ -3254,16 +3419,16 @@
         <v>76</v>
       </c>
       <c r="C61" s="12" t="n">
-        <v>30047.0</v>
+        <v>30046.0</v>
       </c>
       <c r="D61" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>146.0</v>
+        <v>198.0</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G61" s="10" t="n">
         <v>39590.0</v>
@@ -3285,26 +3450,26 @@
       <c r="A62" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C62" s="13" t="n">
-        <v>30049.0</v>
+        <v>30302.0</v>
       </c>
       <c r="D62" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="E62" s="9" t="s">
-        <v>29</v>
+      <c r="E62" s="3" t="n">
+        <v>247.0</v>
       </c>
       <c r="F62" s="3" t="n">
-        <v>2.0</v>
+        <v>44.0</v>
       </c>
       <c r="G62" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I62" s="3" t="n">
         <v>1.0</v>
@@ -3320,32 +3485,32 @@
       <c r="A63" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C63" s="12" t="n">
-        <v>30050.0</v>
+        <v>30047.0</v>
       </c>
       <c r="D63" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>254.0</v>
+        <v>146.0</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>73.0</v>
+        <v>5.0</v>
       </c>
       <c r="G63" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I63" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="J63" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K63" s="2" t="n">
         <v>1.0</v>
@@ -3355,26 +3520,26 @@
       <c r="A64" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C64" s="13" t="n">
-        <v>30052.0</v>
+        <v>30303.0</v>
       </c>
       <c r="D64" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E64" s="3" t="n">
-        <v>170.0</v>
+        <v>210.0</v>
       </c>
       <c r="F64" s="3" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="G64" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I64" s="3" t="n">
         <v>1.0</v>
@@ -3394,7 +3559,7 @@
         <v>80</v>
       </c>
       <c r="C65" s="12" t="n">
-        <v>30053.0</v>
+        <v>30049.0</v>
       </c>
       <c r="D65" s="2" t="n">
         <v>0.0</v>
@@ -3403,7 +3568,7 @@
         <v>29</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G65" s="10" t="n">
         <v>39590.0</v>
@@ -3425,26 +3590,26 @@
       <c r="A66" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="21" t="s">
         <v>81</v>
       </c>
       <c r="C66" s="13" t="n">
-        <v>30055.0</v>
+        <v>30305.0</v>
       </c>
       <c r="D66" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E66" s="3" t="n">
-        <v>167.0</v>
+        <v>368.0</v>
       </c>
       <c r="F66" s="3" t="n">
-        <v>1.0</v>
+        <v>46.0</v>
       </c>
       <c r="G66" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I66" s="3" t="n">
         <v>1.0</v>
@@ -3464,16 +3629,16 @@
         <v>82</v>
       </c>
       <c r="C67" s="12" t="n">
-        <v>30056.0</v>
+        <v>30050.0</v>
       </c>
       <c r="D67" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>276.0</v>
+        <v>254.0</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>39.0</v>
+        <v>73.0</v>
       </c>
       <c r="G67" s="10" t="n">
         <v>39590.0</v>
@@ -3485,7 +3650,7 @@
         <v>1.0</v>
       </c>
       <c r="J67" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K67" s="2" t="n">
         <v>1.0</v>
@@ -3495,32 +3660,32 @@
       <c r="A68" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="17" t="s">
         <v>83</v>
       </c>
       <c r="C68" s="13" t="n">
-        <v>30057.0</v>
+        <v>30306.0</v>
       </c>
       <c r="D68" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E68" s="3" t="n">
-        <v>219.0</v>
+        <v>134.0</v>
       </c>
       <c r="F68" s="3" t="n">
-        <v>181.0</v>
+        <v>1.0</v>
       </c>
       <c r="G68" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I68" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="J68" s="3" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="K68" s="3" t="n">
         <v>1.0</v>
@@ -3534,22 +3699,22 @@
         <v>84</v>
       </c>
       <c r="C69" s="12" t="n">
-        <v>30059.0</v>
+        <v>30307.0</v>
       </c>
       <c r="D69" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>360.0</v>
+        <v>318.0</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>35.0</v>
+        <v>728.0</v>
       </c>
       <c r="G69" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="I69" s="2" t="n">
         <v>1.0</v>
@@ -3565,26 +3730,26 @@
       <c r="A70" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="17" t="s">
         <v>85</v>
       </c>
       <c r="C70" s="13" t="n">
-        <v>30060.0</v>
+        <v>30052.0</v>
       </c>
       <c r="D70" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="E70" s="9" t="s">
-        <v>29</v>
+      <c r="E70" s="3" t="n">
+        <v>170.0</v>
       </c>
       <c r="F70" s="3" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="G70" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I70" s="3" t="n">
         <v>1.0</v>
@@ -3600,26 +3765,26 @@
       <c r="A71" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="14" t="s">
         <v>86</v>
       </c>
       <c r="C71" s="12" t="n">
-        <v>30062.0</v>
+        <v>30053.0</v>
       </c>
       <c r="D71" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E71" s="2" t="n">
-        <v>246.0</v>
+      <c r="E71" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>17.0</v>
+        <v>1.0</v>
       </c>
       <c r="G71" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I71" s="2" t="n">
         <v>1.0</v>
@@ -3639,7 +3804,7 @@
         <v>87</v>
       </c>
       <c r="C72" s="13" t="n">
-        <v>30063.0</v>
+        <v>30309.0</v>
       </c>
       <c r="D72" s="3" t="n">
         <v>0.0</v>
@@ -3674,16 +3839,16 @@
         <v>88</v>
       </c>
       <c r="C73" s="12" t="n">
-        <v>30066.0</v>
+        <v>30310.0</v>
       </c>
       <c r="D73" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>213.0</v>
+        <v>205.0</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>34.0</v>
+        <v>17.0</v>
       </c>
       <c r="G73" s="10" t="n">
         <v>39590.0</v>
@@ -3709,16 +3874,16 @@
         <v>89</v>
       </c>
       <c r="C74" s="13" t="n">
-        <v>30071.0</v>
+        <v>30055.0</v>
       </c>
       <c r="D74" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E74" s="3" t="n">
-        <v>139.0</v>
+        <v>167.0</v>
       </c>
       <c r="F74" s="3" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G74" s="11" t="n">
         <v>39590.0</v>
@@ -3740,20 +3905,20 @@
       <c r="A75" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="16" t="s">
         <v>90</v>
       </c>
       <c r="C75" s="12" t="n">
-        <v>30072.0</v>
+        <v>30311.0</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>291.0</v>
+        <v>154.0</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G75" s="10" t="n">
         <v>39590.0</v>
@@ -3775,20 +3940,20 @@
       <c r="A76" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="19" t="s">
         <v>91</v>
       </c>
       <c r="C76" s="13" t="n">
-        <v>30073.0</v>
+        <v>30056.0</v>
       </c>
       <c r="D76" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E76" s="3" t="n">
-        <v>562.0</v>
+        <v>276.0</v>
       </c>
       <c r="F76" s="3" t="n">
-        <v>22.0</v>
+        <v>39.0</v>
       </c>
       <c r="G76" s="11" t="n">
         <v>39590.0</v>
@@ -3810,26 +3975,26 @@
       <c r="A77" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="18" t="s">
         <v>92</v>
       </c>
       <c r="C77" s="12" t="n">
-        <v>30076.0</v>
+        <v>30057.0</v>
       </c>
       <c r="D77" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>314.0</v>
+        <v>219.0</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>97.0</v>
+        <v>181.0</v>
       </c>
       <c r="G77" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H77" s="2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I77" s="2" t="n">
         <v>1.0</v>
@@ -3845,26 +4010,26 @@
       <c r="A78" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="23" t="s">
         <v>93</v>
       </c>
       <c r="C78" s="13" t="n">
-        <v>30077.0</v>
+        <v>30313.0</v>
       </c>
       <c r="D78" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E78" s="3" t="n">
-        <v>134.0</v>
+        <v>496.0</v>
       </c>
       <c r="F78" s="3" t="n">
-        <v>3.0</v>
+        <v>118.0</v>
       </c>
       <c r="G78" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H78" s="3" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="I78" s="3" t="n">
         <v>1.0</v>
@@ -3880,26 +4045,26 @@
       <c r="A79" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C79" s="12" t="n">
-        <v>30080.0</v>
+        <v>30059.0</v>
       </c>
       <c r="D79" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>161.0</v>
+        <v>360.0</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>8.0</v>
+        <v>35.0</v>
       </c>
       <c r="G79" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H79" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I79" s="2" t="n">
         <v>1.0</v>
@@ -3915,26 +4080,26 @@
       <c r="A80" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="25" t="s">
         <v>95</v>
       </c>
       <c r="C80" s="13" t="n">
-        <v>30081.0</v>
+        <v>30315.0</v>
       </c>
       <c r="D80" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E80" s="3" t="n">
-        <v>162.0</v>
+        <v>514.0</v>
       </c>
       <c r="F80" s="3" t="n">
-        <v>1.0</v>
+        <v>444.0</v>
       </c>
       <c r="G80" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H80" s="3" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="I80" s="3" t="n">
         <v>1.0</v>
@@ -3950,26 +4115,26 @@
       <c r="A81" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="14" t="s">
         <v>96</v>
       </c>
       <c r="C81" s="12" t="n">
-        <v>30082.0</v>
+        <v>30060.0</v>
       </c>
       <c r="D81" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E81" s="2" t="n">
-        <v>466.0</v>
+      <c r="E81" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="G81" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H81" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I81" s="2" t="n">
         <v>1.0</v>
@@ -3989,16 +4154,16 @@
         <v>97</v>
       </c>
       <c r="C82" s="13" t="n">
-        <v>30084.0</v>
+        <v>30062.0</v>
       </c>
       <c r="D82" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E82" s="3" t="n">
-        <v>221.0</v>
+        <v>246.0</v>
       </c>
       <c r="F82" s="3" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="G82" s="11" t="n">
         <v>39590.0</v>
@@ -4020,26 +4185,26 @@
       <c r="A83" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C83" s="12" t="n">
-        <v>30085.0</v>
+        <v>30063.0</v>
       </c>
       <c r="D83" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E83" s="2" t="n">
-        <v>142.0</v>
+      <c r="E83" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G83" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H83" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I83" s="2" t="n">
         <v>1.0</v>
@@ -4055,26 +4220,26 @@
       <c r="A84" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C84" s="13" t="n">
-        <v>30086.0</v>
+        <v>30319.0</v>
       </c>
       <c r="D84" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="E84" s="3" t="n">
-        <v>155.0</v>
+      <c r="E84" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="F84" s="3" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="G84" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H84" s="3" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I84" s="3" t="n">
         <v>1.0</v>
@@ -4094,16 +4259,16 @@
         <v>100</v>
       </c>
       <c r="C85" s="12" t="n">
-        <v>30087.0</v>
+        <v>30066.0</v>
       </c>
       <c r="D85" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>202.0</v>
+        <v>213.0</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>20.0</v>
+        <v>34.0</v>
       </c>
       <c r="G85" s="10" t="n">
         <v>39590.0</v>
@@ -4125,17 +4290,17 @@
       <c r="A86" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="B86" s="19" t="s">
         <v>101</v>
       </c>
       <c r="C86" s="13" t="n">
-        <v>30088.0</v>
+        <v>30322.0</v>
       </c>
       <c r="D86" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E86" s="3" t="n">
-        <v>133.0</v>
+        <v>264.0</v>
       </c>
       <c r="F86" s="3" t="n">
         <v>5.0</v>
@@ -4160,26 +4325,26 @@
       <c r="A87" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C87" s="12" t="n">
-        <v>30089.0</v>
+        <v>30324.0</v>
       </c>
       <c r="D87" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>301.0</v>
+        <v>224.0</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="G87" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H87" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I87" s="2" t="n">
         <v>1.0</v>
@@ -4199,13 +4364,13 @@
         <v>103</v>
       </c>
       <c r="C88" s="13" t="n">
-        <v>30090.0</v>
+        <v>30071.0</v>
       </c>
       <c r="D88" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E88" s="3" t="n">
-        <v>136.0</v>
+        <v>139.0</v>
       </c>
       <c r="F88" s="3" t="n">
         <v>4.0</v>
@@ -4230,26 +4395,26 @@
       <c r="A89" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C89" s="12" t="n">
-        <v>30092.0</v>
+        <v>30072.0</v>
       </c>
       <c r="D89" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E89" s="8" t="s">
-        <v>29</v>
+      <c r="E89" s="2" t="n">
+        <v>291.0</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G89" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H89" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I89" s="2" t="n">
         <v>1.0</v>
@@ -4265,26 +4430,26 @@
       <c r="A90" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="B90" s="25" t="s">
         <v>105</v>
       </c>
       <c r="C90" s="13" t="n">
-        <v>30095.0</v>
+        <v>30073.0</v>
       </c>
       <c r="D90" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E90" s="3" t="n">
-        <v>235.0</v>
+        <v>562.0</v>
       </c>
       <c r="F90" s="3" t="n">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="G90" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H90" s="3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I90" s="3" t="n">
         <v>1.0</v>
@@ -4300,20 +4465,20 @@
       <c r="A91" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="20" t="s">
         <v>106</v>
       </c>
       <c r="C91" s="12" t="n">
-        <v>30097.0</v>
+        <v>30076.0</v>
       </c>
       <c r="D91" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>239.0</v>
+        <v>314.0</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>19.0</v>
+        <v>97.0</v>
       </c>
       <c r="G91" s="10" t="n">
         <v>39590.0</v>
@@ -4336,19 +4501,19 @@
         <v>26</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="C92" s="13" t="n">
-        <v>30098.0</v>
+        <v>30332.0</v>
       </c>
       <c r="D92" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E92" s="3" t="n">
-        <v>214.0</v>
+        <v>215.0</v>
       </c>
       <c r="F92" s="3" t="n">
-        <v>19.0</v>
+        <v>29.0</v>
       </c>
       <c r="G92" s="11" t="n">
         <v>39590.0</v>
@@ -4371,19 +4536,19 @@
         <v>26</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C93" s="12" t="n">
-        <v>30102.0</v>
+        <v>30077.0</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>108.0</v>
+        <v>134.0</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G93" s="10" t="n">
         <v>39590.0</v>
@@ -4406,19 +4571,19 @@
         <v>26</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C94" s="13" t="n">
-        <v>30104.0</v>
+        <v>30333.0</v>
       </c>
       <c r="D94" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E94" s="3" t="n">
-        <v>209.0</v>
+        <v>215.0</v>
       </c>
       <c r="F94" s="3" t="n">
-        <v>50.0</v>
+        <v>32.0</v>
       </c>
       <c r="G94" s="11" t="n">
         <v>39590.0</v>
@@ -4441,25 +4606,25 @@
         <v>26</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C95" s="12" t="n">
-        <v>30105.0</v>
+        <v>30334.0</v>
       </c>
       <c r="D95" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>149.0</v>
+        <v>141.0</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G95" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H95" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I95" s="2" t="n">
         <v>1.0</v>
@@ -4475,26 +4640,26 @@
       <c r="A96" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B96" s="21" t="s">
-        <v>109</v>
+      <c r="B96" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="C96" s="13" t="n">
-        <v>30110.0</v>
+        <v>30335.0</v>
       </c>
       <c r="D96" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E96" s="3" t="n">
-        <v>374.0</v>
+        <v>136.0</v>
       </c>
       <c r="F96" s="3" t="n">
-        <v>67.0</v>
+        <v>4.0</v>
       </c>
       <c r="G96" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I96" s="3" t="n">
         <v>1.0</v>
@@ -4510,26 +4675,26 @@
       <c r="A97" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B97" s="14" t="s">
-        <v>110</v>
+      <c r="B97" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="C97" s="12" t="n">
-        <v>30111.0</v>
+        <v>30080.0</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>92.0</v>
+        <v>161.0</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="G97" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H97" s="2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I97" s="2" t="n">
         <v>1.0</v>
@@ -4546,25 +4711,25 @@
         <v>26</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C98" s="13" t="n">
-        <v>30113.0</v>
+        <v>30336.0</v>
       </c>
       <c r="D98" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E98" s="3" t="n">
-        <v>134.0</v>
+        <v>167.0</v>
       </c>
       <c r="F98" s="3" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="G98" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H98" s="3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I98" s="3" t="n">
         <v>1.0</v>
@@ -4581,25 +4746,25 @@
         <v>26</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C99" s="12" t="n">
-        <v>30114.0</v>
+        <v>30081.0</v>
       </c>
       <c r="D99" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>190.0</v>
+        <v>162.0</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="G99" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H99" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I99" s="2" t="n">
         <v>1.0</v>
@@ -4615,26 +4780,26 @@
       <c r="A100" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B100" s="19" t="s">
-        <v>113</v>
+      <c r="B100" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="C100" s="13" t="n">
-        <v>30120.0</v>
+        <v>30082.0</v>
       </c>
       <c r="D100" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E100" s="3" t="n">
-        <v>285.0</v>
+        <v>466.0</v>
       </c>
       <c r="F100" s="3" t="n">
-        <v>290.0</v>
+        <v>11.0</v>
       </c>
       <c r="G100" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H100" s="3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="I100" s="3" t="n">
         <v>1.0</v>
@@ -4650,26 +4815,26 @@
       <c r="A101" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B101" s="20" t="s">
-        <v>114</v>
+      <c r="B101" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="C101" s="12" t="n">
-        <v>30121.0</v>
+        <v>30339.0</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>355.0</v>
+        <v>158.0</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
       <c r="G101" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H101" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I101" s="2" t="n">
         <v>1.0</v>
@@ -4685,20 +4850,20 @@
       <c r="A102" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B102" s="17" t="s">
-        <v>115</v>
+      <c r="B102" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="C102" s="13" t="n">
-        <v>30124.0</v>
+        <v>30084.0</v>
       </c>
       <c r="D102" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E102" s="3" t="n">
-        <v>189.0</v>
+        <v>221.0</v>
       </c>
       <c r="F102" s="3" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="G102" s="11" t="n">
         <v>39590.0</v>
@@ -4721,25 +4886,25 @@
         <v>26</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C103" s="12" t="n">
-        <v>30126.0</v>
+        <v>30340.0</v>
       </c>
       <c r="D103" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>152.0</v>
+        <v>109.0</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="G103" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H103" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I103" s="2" t="n">
         <v>1.0</v>
@@ -4756,25 +4921,25 @@
         <v>26</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C104" s="13" t="n">
-        <v>30127.0</v>
+        <v>30085.0</v>
       </c>
       <c r="D104" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E104" s="3" t="n">
-        <v>197.0</v>
+        <v>142.0</v>
       </c>
       <c r="F104" s="3" t="n">
-        <v>39.0</v>
+        <v>2.0</v>
       </c>
       <c r="G104" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H104" s="3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I104" s="3" t="n">
         <v>1.0</v>
@@ -4791,25 +4956,25 @@
         <v>26</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C105" s="12" t="n">
-        <v>30128.0</v>
+        <v>30341.0</v>
       </c>
       <c r="D105" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>296.0</v>
+        <v>240.0</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
       <c r="G105" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H105" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I105" s="2" t="n">
         <v>1.0</v>
@@ -4825,20 +4990,20 @@
       <c r="A106" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B106" s="19" t="s">
-        <v>118</v>
+      <c r="B106" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C106" s="13" t="n">
-        <v>30130.0</v>
+        <v>30086.0</v>
       </c>
       <c r="D106" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E106" s="3" t="n">
-        <v>252.0</v>
+        <v>155.0</v>
       </c>
       <c r="F106" s="3" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="G106" s="11" t="n">
         <v>39590.0</v>
@@ -4860,20 +5025,20 @@
       <c r="A107" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B107" s="16" t="s">
-        <v>119</v>
+      <c r="B107" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="C107" s="12" t="n">
-        <v>30132.0</v>
+        <v>30087.0</v>
       </c>
       <c r="D107" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>183.0</v>
+        <v>202.0</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="G107" s="10" t="n">
         <v>39590.0</v>
@@ -4896,25 +5061,25 @@
         <v>26</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C108" s="13" t="n">
-        <v>30134.0</v>
+        <v>30088.0</v>
       </c>
       <c r="D108" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E108" s="3" t="n">
-        <v>194.0</v>
+        <v>133.0</v>
       </c>
       <c r="F108" s="3" t="n">
-        <v>105.0</v>
+        <v>5.0</v>
       </c>
       <c r="G108" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H108" s="3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I108" s="3" t="n">
         <v>1.0</v>
@@ -4930,26 +5095,26 @@
       <c r="A109" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B109" s="14" t="s">
-        <v>121</v>
+      <c r="B109" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="C109" s="12" t="n">
-        <v>30137.0</v>
+        <v>30344.0</v>
       </c>
       <c r="D109" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E109" s="8" t="s">
-        <v>29</v>
+      <c r="E109" s="2" t="n">
+        <v>266.0</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="G109" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H109" s="2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I109" s="2" t="n">
         <v>1.0</v>
@@ -4966,25 +5131,25 @@
         <v>26</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C110" s="13" t="n">
-        <v>30140.0</v>
+        <v>30089.0</v>
       </c>
       <c r="D110" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E110" s="3" t="n">
-        <v>384.0</v>
+        <v>301.0</v>
       </c>
       <c r="F110" s="3" t="n">
-        <v>87.0</v>
+        <v>9.0</v>
       </c>
       <c r="G110" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H110" s="3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="I110" s="3" t="n">
         <v>1.0</v>
@@ -5000,26 +5165,26 @@
       <c r="A111" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B111" s="22" t="s">
-        <v>123</v>
+      <c r="B111" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="C111" s="12" t="n">
-        <v>30141.0</v>
+        <v>30345.0</v>
       </c>
       <c r="D111" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>461.0</v>
+        <v>366.0</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>614.0</v>
+        <v>88.0</v>
       </c>
       <c r="G111" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H111" s="2" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="I111" s="2" t="n">
         <v>1.0</v>
@@ -5035,26 +5200,26 @@
       <c r="A112" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B112" s="23" t="s">
-        <v>124</v>
+      <c r="B112" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="C112" s="13" t="n">
-        <v>30142.0</v>
+        <v>30090.0</v>
       </c>
       <c r="D112" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E112" s="3" t="n">
-        <v>432.0</v>
+        <v>136.0</v>
       </c>
       <c r="F112" s="3" t="n">
-        <v>470.0</v>
+        <v>4.0</v>
       </c>
       <c r="G112" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H112" s="3" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="I112" s="3" t="n">
         <v>1.0</v>
@@ -5070,26 +5235,26 @@
       <c r="A113" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B113" s="16" t="s">
-        <v>63</v>
+      <c r="B113" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="C113" s="12" t="n">
-        <v>30143.0</v>
+        <v>30092.0</v>
       </c>
       <c r="D113" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E113" s="2" t="n">
-        <v>145.0</v>
+      <c r="E113" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="G113" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H113" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I113" s="2" t="n">
         <v>1.0</v>
@@ -5106,16 +5271,16 @@
         <v>26</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C114" s="13" t="n">
-        <v>30144.0</v>
+        <v>30349.0</v>
       </c>
       <c r="D114" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E114" s="3" t="n">
-        <v>210.0</v>
+        <v>209.0</v>
       </c>
       <c r="F114" s="3" t="n">
         <v>4.0</v>
@@ -5140,26 +5305,26 @@
       <c r="A115" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B115" s="18" t="s">
-        <v>88</v>
+      <c r="B115" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="C115" s="12" t="n">
-        <v>30145.0</v>
+        <v>30350.0</v>
       </c>
       <c r="D115" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E115" s="2" t="n">
-        <v>229.0</v>
+      <c r="E115" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="G115" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H115" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I115" s="2" t="n">
         <v>1.0</v>
@@ -5175,26 +5340,26 @@
       <c r="A116" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B116" s="21" t="s">
-        <v>126</v>
+      <c r="B116" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="C116" s="13" t="n">
-        <v>30149.0</v>
+        <v>30095.0</v>
       </c>
       <c r="D116" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E116" s="3" t="n">
-        <v>384.0</v>
+        <v>235.0</v>
       </c>
       <c r="F116" s="3" t="n">
-        <v>60.0</v>
+        <v>14.0</v>
       </c>
       <c r="G116" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H116" s="3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I116" s="3" t="n">
         <v>1.0</v>
@@ -5211,10 +5376,10 @@
         <v>26</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C117" s="12" t="n">
-        <v>30150.0</v>
+        <v>30352.0</v>
       </c>
       <c r="D117" s="2" t="n">
         <v>0.0</v>
@@ -5245,26 +5410,26 @@
       <c r="A118" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B118" s="15" t="s">
-        <v>128</v>
+      <c r="B118" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="C118" s="13" t="n">
-        <v>30151.0</v>
+        <v>30097.0</v>
       </c>
       <c r="D118" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="E118" s="9" t="s">
-        <v>29</v>
+      <c r="E118" s="3" t="n">
+        <v>239.0</v>
       </c>
       <c r="F118" s="3" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="G118" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H118" s="3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I118" s="3" t="n">
         <v>1.0</v>
@@ -5281,19 +5446,19 @@
         <v>26</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C119" s="12" t="n">
-        <v>30154.0</v>
+        <v>30353.0</v>
       </c>
       <c r="D119" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>182.0</v>
+        <v>124.0</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G119" s="10" t="n">
         <v>39590.0</v>
@@ -5315,26 +5480,26 @@
       <c r="A120" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B120" s="17" t="s">
-        <v>130</v>
+      <c r="B120" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="C120" s="13" t="n">
-        <v>30157.0</v>
+        <v>30098.0</v>
       </c>
       <c r="D120" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E120" s="3" t="n">
-        <v>100.0</v>
+        <v>214.0</v>
       </c>
       <c r="F120" s="3" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="G120" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H120" s="3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I120" s="3" t="n">
         <v>1.0</v>
@@ -5351,25 +5516,25 @@
         <v>26</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C121" s="12" t="n">
-        <v>30159.0</v>
+        <v>30354.0</v>
       </c>
       <c r="D121" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>126.0</v>
+        <v>183.0</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="G121" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H121" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I121" s="2" t="n">
         <v>1.0</v>
@@ -5385,20 +5550,20 @@
       <c r="A122" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B122" s="21" t="s">
-        <v>132</v>
+      <c r="B122" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="C122" s="13" t="n">
-        <v>30160.0</v>
+        <v>30355.0</v>
       </c>
       <c r="D122" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E122" s="3" t="n">
-        <v>300.0</v>
+        <v>127.0</v>
       </c>
       <c r="F122" s="3" t="n">
-        <v>32.0</v>
+        <v>62.0</v>
       </c>
       <c r="G122" s="11" t="n">
         <v>39590.0</v>
@@ -5420,26 +5585,26 @@
       <c r="A123" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B123" s="16" t="s">
-        <v>133</v>
+      <c r="B123" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="C123" s="12" t="n">
-        <v>30161.0</v>
+        <v>30357.0</v>
       </c>
       <c r="D123" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E123" s="2" t="n">
+        <v>315.0</v>
+      </c>
+      <c r="F123" s="2" t="n">
         <v>184.0</v>
       </c>
-      <c r="F123" s="2" t="n">
-        <v>12.0</v>
-      </c>
       <c r="G123" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H123" s="2" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="I123" s="2" t="n">
         <v>1.0</v>
@@ -5455,26 +5620,26 @@
       <c r="A124" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B124" s="19" t="s">
-        <v>134</v>
+      <c r="B124" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="C124" s="13" t="n">
-        <v>30162.0</v>
+        <v>30102.0</v>
       </c>
       <c r="D124" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E124" s="3" t="n">
-        <v>270.0</v>
+        <v>108.0</v>
       </c>
       <c r="F124" s="3" t="n">
-        <v>26.0</v>
+        <v>1.0</v>
       </c>
       <c r="G124" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H124" s="3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I124" s="3" t="n">
         <v>1.0</v>
@@ -5490,32 +5655,32 @@
       <c r="A125" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B125" s="14" t="s">
-        <v>135</v>
+      <c r="B125" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="C125" s="12" t="n">
-        <v>30164.0</v>
+        <v>30358.0</v>
       </c>
       <c r="D125" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E125" s="8" t="s">
-        <v>29</v>
+      <c r="E125" s="2" t="n">
+        <v>180.0</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>0.0</v>
+        <v>83.0</v>
       </c>
       <c r="G125" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H125" s="2" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I125" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="J125" s="2" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="K125" s="2" t="n">
         <v>1.0</v>
@@ -5526,10 +5691,10 @@
         <v>26</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C126" s="13" t="n">
-        <v>30165.0</v>
+        <v>30359.0</v>
       </c>
       <c r="D126" s="3" t="n">
         <v>0.0</v>
@@ -5560,26 +5725,26 @@
       <c r="A127" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B127" s="16" t="s">
-        <v>137</v>
+      <c r="B127" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="C127" s="12" t="n">
-        <v>30172.0</v>
+        <v>30104.0</v>
       </c>
       <c r="D127" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>140.0</v>
+        <v>209.0</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>6.0</v>
+        <v>50.0</v>
       </c>
       <c r="G127" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H127" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I127" s="2" t="n">
         <v>1.0</v>
@@ -5595,26 +5760,26 @@
       <c r="A128" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B128" s="17" t="s">
-        <v>138</v>
+      <c r="B128" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C128" s="13" t="n">
-        <v>30176.0</v>
+        <v>30360.0</v>
       </c>
       <c r="D128" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E128" s="3" t="n">
-        <v>188.0</v>
+        <v>353.0</v>
       </c>
       <c r="F128" s="3" t="n">
-        <v>23.0</v>
+        <v>164.0</v>
       </c>
       <c r="G128" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H128" s="3" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I128" s="3" t="n">
         <v>1.0</v>
@@ -5631,19 +5796,19 @@
         <v>26</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C129" s="12" t="n">
-        <v>30179.0</v>
+        <v>30105.0</v>
       </c>
       <c r="D129" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>179.0</v>
+        <v>149.0</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>56.0</v>
+        <v>7.0</v>
       </c>
       <c r="G129" s="10" t="n">
         <v>39590.0</v>
@@ -5665,26 +5830,26 @@
       <c r="A130" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B130" s="17" t="s">
-        <v>140</v>
+      <c r="B130" s="21" t="s">
+        <v>142</v>
       </c>
       <c r="C130" s="13" t="n">
-        <v>30180.0</v>
+        <v>30361.0</v>
       </c>
       <c r="D130" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E130" s="3" t="n">
-        <v>110.0</v>
+        <v>330.0</v>
       </c>
       <c r="F130" s="3" t="n">
-        <v>3.0</v>
+        <v>92.0</v>
       </c>
       <c r="G130" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H130" s="3" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I130" s="3" t="n">
         <v>1.0</v>
@@ -5700,26 +5865,26 @@
       <c r="A131" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B131" s="18" t="s">
-        <v>141</v>
+      <c r="B131" s="20" t="s">
+        <v>143</v>
       </c>
       <c r="C131" s="12" t="n">
-        <v>30182.0</v>
+        <v>30362.0</v>
       </c>
       <c r="D131" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>248.0</v>
+        <v>396.0</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>2.0</v>
+        <v>162.0</v>
       </c>
       <c r="G131" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H131" s="2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I131" s="2" t="n">
         <v>1.0</v>
@@ -5735,32 +5900,32 @@
       <c r="A132" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B132" s="19" t="s">
-        <v>142</v>
+      <c r="B132" s="17" t="s">
+        <v>144</v>
       </c>
       <c r="C132" s="13" t="n">
-        <v>30183.0</v>
+        <v>30364.0</v>
       </c>
       <c r="D132" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E132" s="3" t="n">
-        <v>243.0</v>
+        <v>137.0</v>
       </c>
       <c r="F132" s="3" t="n">
-        <v>283.0</v>
+        <v>5.0</v>
       </c>
       <c r="G132" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H132" s="3" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I132" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="J132" s="3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K132" s="3" t="n">
         <v>1.0</v>
@@ -5770,26 +5935,26 @@
       <c r="A133" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B133" s="18" t="s">
-        <v>143</v>
+      <c r="B133" s="20" t="s">
+        <v>138</v>
       </c>
       <c r="C133" s="12" t="n">
-        <v>30185.0</v>
+        <v>30110.0</v>
       </c>
       <c r="D133" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>287.0</v>
+        <v>374.0</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>23.0</v>
+        <v>67.0</v>
       </c>
       <c r="G133" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H133" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I133" s="2" t="n">
         <v>1.0</v>
@@ -5805,26 +5970,26 @@
       <c r="A134" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B134" s="17" t="s">
-        <v>144</v>
+      <c r="B134" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="C134" s="13" t="n">
-        <v>30187.0</v>
+        <v>30366.0</v>
       </c>
       <c r="D134" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E134" s="3" t="n">
-        <v>199.0</v>
+        <v>234.0</v>
       </c>
       <c r="F134" s="3" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="G134" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H134" s="3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I134" s="3" t="n">
         <v>1.0</v>
@@ -5840,26 +6005,26 @@
       <c r="A135" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B135" s="18" t="s">
-        <v>114</v>
+      <c r="B135" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="C135" s="12" t="n">
-        <v>30191.0</v>
+        <v>30111.0</v>
       </c>
       <c r="D135" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>246.0</v>
+        <v>92.0</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>33.0</v>
+        <v>4.0</v>
       </c>
       <c r="G135" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H135" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I135" s="2" t="n">
         <v>1.0</v>
@@ -5875,26 +6040,26 @@
       <c r="A136" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B136" s="19" t="s">
-        <v>145</v>
+      <c r="B136" s="17" t="s">
+        <v>147</v>
       </c>
       <c r="C136" s="13" t="n">
-        <v>30192.0</v>
+        <v>30367.0</v>
       </c>
       <c r="D136" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E136" s="3" t="n">
-        <v>238.0</v>
+        <v>176.0</v>
       </c>
       <c r="F136" s="3" t="n">
-        <v>69.0</v>
+        <v>24.0</v>
       </c>
       <c r="G136" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H136" s="3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I136" s="3" t="n">
         <v>1.0</v>
@@ -5910,26 +6075,26 @@
       <c r="A137" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B137" s="16" t="s">
-        <v>146</v>
+      <c r="B137" s="22" t="s">
+        <v>148</v>
       </c>
       <c r="C137" s="12" t="n">
-        <v>30194.0</v>
+        <v>30368.0</v>
       </c>
       <c r="D137" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>137.0</v>
+        <v>446.0</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>3.0</v>
+        <v>182.0</v>
       </c>
       <c r="G137" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H137" s="2" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="I137" s="2" t="n">
         <v>1.0</v>
@@ -5945,26 +6110,26 @@
       <c r="A138" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B138" s="19" t="s">
-        <v>147</v>
+      <c r="B138" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="C138" s="13" t="n">
-        <v>30195.0</v>
+        <v>30113.0</v>
       </c>
       <c r="D138" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E138" s="3" t="n">
-        <v>249.0</v>
+        <v>134.0</v>
       </c>
       <c r="F138" s="3" t="n">
-        <v>58.0</v>
+        <v>3.0</v>
       </c>
       <c r="G138" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H138" s="3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I138" s="3" t="n">
         <v>1.0</v>
@@ -5980,26 +6145,26 @@
       <c r="A139" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B139" s="20" t="s">
-        <v>148</v>
+      <c r="B139" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="C139" s="12" t="n">
-        <v>30196.0</v>
+        <v>30369.0</v>
       </c>
       <c r="D139" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>356.0</v>
+        <v>233.0</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>27.0</v>
+        <v>4.0</v>
       </c>
       <c r="G139" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H139" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I139" s="2" t="n">
         <v>1.0</v>
@@ -6016,19 +6181,19 @@
         <v>26</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C140" s="13" t="n">
-        <v>30198.0</v>
+        <v>30114.0</v>
       </c>
       <c r="D140" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E140" s="3" t="n">
-        <v>199.0</v>
+        <v>190.0</v>
       </c>
       <c r="F140" s="3" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G140" s="11" t="n">
         <v>39590.0</v>
@@ -6050,26 +6215,26 @@
       <c r="A141" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B141" s="16" t="s">
-        <v>150</v>
+      <c r="B141" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="C141" s="12" t="n">
-        <v>30199.0</v>
+        <v>30371.0</v>
       </c>
       <c r="D141" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E141" s="2" t="n">
-        <v>144.0</v>
+      <c r="E141" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G141" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H141" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I141" s="2" t="n">
         <v>1.0</v>
@@ -6085,26 +6250,26 @@
       <c r="A142" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B142" s="19" t="s">
-        <v>151</v>
+      <c r="B142" s="21" t="s">
+        <v>153</v>
       </c>
       <c r="C142" s="13" t="n">
-        <v>30200.0</v>
+        <v>30374.0</v>
       </c>
       <c r="D142" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E142" s="3" t="n">
-        <v>213.0</v>
+        <v>367.0</v>
       </c>
       <c r="F142" s="3" t="n">
-        <v>219.0</v>
+        <v>47.0</v>
       </c>
       <c r="G142" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H142" s="3" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="I142" s="3" t="n">
         <v>1.0</v>
@@ -6120,26 +6285,26 @@
       <c r="A143" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B143" s="14" t="s">
-        <v>109</v>
+      <c r="B143" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C143" s="12" t="n">
-        <v>30201.0</v>
+        <v>30375.0</v>
       </c>
       <c r="D143" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E143" s="8" t="s">
-        <v>29</v>
+      <c r="E143" s="2" t="n">
+        <v>223.0</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>0.0</v>
+        <v>114.0</v>
       </c>
       <c r="G143" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H143" s="2" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I143" s="2" t="n">
         <v>1.0</v>
@@ -6155,26 +6320,26 @@
       <c r="A144" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B144" s="17" t="s">
-        <v>109</v>
+      <c r="B144" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="C144" s="13" t="n">
-        <v>30203.0</v>
+        <v>30120.0</v>
       </c>
       <c r="D144" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E144" s="3" t="n">
-        <v>107.0</v>
+        <v>285.0</v>
       </c>
       <c r="F144" s="3" t="n">
-        <v>1.0</v>
+        <v>290.0</v>
       </c>
       <c r="G144" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H144" s="3" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I144" s="3" t="n">
         <v>1.0</v>
@@ -6190,26 +6355,26 @@
       <c r="A145" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B145" s="16" t="s">
-        <v>152</v>
+      <c r="B145" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="C145" s="12" t="n">
-        <v>30205.0</v>
+        <v>30376.0</v>
       </c>
       <c r="D145" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>171.0</v>
+        <v>92.0</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>35.0</v>
+        <v>1.0</v>
       </c>
       <c r="G145" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H145" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I145" s="2" t="n">
         <v>1.0</v>
@@ -6225,20 +6390,20 @@
       <c r="A146" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B146" s="17" t="s">
-        <v>153</v>
+      <c r="B146" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="C146" s="13" t="n">
-        <v>30206.0</v>
+        <v>30121.0</v>
       </c>
       <c r="D146" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E146" s="3" t="n">
-        <v>196.0</v>
+        <v>355.0</v>
       </c>
       <c r="F146" s="3" t="n">
-        <v>107.0</v>
+        <v>24.0</v>
       </c>
       <c r="G146" s="11" t="n">
         <v>39590.0</v>
@@ -6261,19 +6426,19 @@
         <v>26</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C147" s="12" t="n">
-        <v>30208.0</v>
+        <v>30377.0</v>
       </c>
       <c r="D147" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E147" s="2" t="n">
-        <v>103.0</v>
+        <v>107.0</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G147" s="10" t="n">
         <v>39590.0</v>
@@ -6295,32 +6460,32 @@
       <c r="A148" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B148" s="21" t="s">
-        <v>109</v>
+      <c r="B148" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="C148" s="13" t="n">
-        <v>30209.0</v>
+        <v>30378.0</v>
       </c>
       <c r="D148" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E148" s="3" t="n">
-        <v>331.0</v>
+        <v>138.0</v>
       </c>
       <c r="F148" s="3" t="n">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
       <c r="G148" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H148" s="3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I148" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="J148" s="3" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="K148" s="3" t="n">
         <v>1.0</v>
@@ -6330,26 +6495,26 @@
       <c r="A149" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B149" s="16" t="s">
-        <v>155</v>
+      <c r="B149" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="C149" s="12" t="n">
-        <v>30210.0</v>
+        <v>30379.0</v>
       </c>
       <c r="D149" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E149" s="2" t="n">
-        <v>111.0</v>
+        <v>71.0</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G149" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H149" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I149" s="2" t="n">
         <v>1.0</v>
@@ -6365,20 +6530,20 @@
       <c r="A150" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B150" s="19" t="s">
-        <v>156</v>
+      <c r="B150" s="17" t="s">
+        <v>161</v>
       </c>
       <c r="C150" s="13" t="n">
-        <v>30214.0</v>
+        <v>30124.0</v>
       </c>
       <c r="D150" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E150" s="3" t="n">
-        <v>274.0</v>
+        <v>189.0</v>
       </c>
       <c r="F150" s="3" t="n">
-        <v>25.0</v>
+        <v>11.0</v>
       </c>
       <c r="G150" s="11" t="n">
         <v>39590.0</v>
@@ -6400,26 +6565,26 @@
       <c r="A151" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B151" s="14" t="s">
-        <v>157</v>
+      <c r="B151" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="C151" s="12" t="n">
-        <v>30215.0</v>
+        <v>30380.0</v>
       </c>
       <c r="D151" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>90.0</v>
+        <v>305.0</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
       <c r="G151" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H151" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I151" s="2" t="n">
         <v>1.0</v>
@@ -6436,19 +6601,19 @@
         <v>26</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C152" s="13" t="n">
-        <v>30219.0</v>
+        <v>30126.0</v>
       </c>
       <c r="D152" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E152" s="3" t="n">
-        <v>184.0</v>
+        <v>152.0</v>
       </c>
       <c r="F152" s="3" t="n">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="G152" s="11" t="n">
         <v>39590.0</v>
@@ -6470,20 +6635,20 @@
       <c r="A153" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B153" s="22" t="s">
-        <v>159</v>
+      <c r="B153" s="18" t="s">
+        <v>163</v>
       </c>
       <c r="C153" s="12" t="n">
-        <v>30222.0</v>
+        <v>30382.0</v>
       </c>
       <c r="D153" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E153" s="2" t="n">
-        <v>441.0</v>
+        <v>287.0</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>105.0</v>
+        <v>192.0</v>
       </c>
       <c r="G153" s="10" t="n">
         <v>39590.0</v>
@@ -6505,26 +6670,26 @@
       <c r="A154" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B154" s="23" t="s">
-        <v>160</v>
+      <c r="B154" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="C154" s="13" t="n">
-        <v>30224.0</v>
+        <v>30127.0</v>
       </c>
       <c r="D154" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E154" s="3" t="n">
-        <v>434.0</v>
+        <v>197.0</v>
       </c>
       <c r="F154" s="3" t="n">
-        <v>251.0</v>
+        <v>39.0</v>
       </c>
       <c r="G154" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H154" s="3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="I154" s="3" t="n">
         <v>1.0</v>
@@ -6541,10 +6706,10 @@
         <v>26</v>
       </c>
       <c r="B155" s="18" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="C155" s="12" t="n">
-        <v>30225.0</v>
+        <v>30128.0</v>
       </c>
       <c r="D155" s="2" t="n">
         <v>0.0</v>
@@ -6553,7 +6718,7 @@
         <v>296.0</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="G155" s="10" t="n">
         <v>39590.0</v>
@@ -6575,26 +6740,26 @@
       <c r="A156" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B156" s="15" t="s">
-        <v>161</v>
+      <c r="B156" s="21" t="s">
+        <v>166</v>
       </c>
       <c r="C156" s="13" t="n">
-        <v>30227.0</v>
+        <v>30384.0</v>
       </c>
       <c r="D156" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E156" s="3" t="n">
-        <v>89.0</v>
+        <v>350.0</v>
       </c>
       <c r="F156" s="3" t="n">
-        <v>2.0</v>
+        <v>270.0</v>
       </c>
       <c r="G156" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H156" s="3" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I156" s="3" t="n">
         <v>1.0</v>
@@ -6610,26 +6775,26 @@
       <c r="A157" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B157" s="20" t="s">
-        <v>162</v>
+      <c r="B157" s="18" t="s">
+        <v>167</v>
       </c>
       <c r="C157" s="12" t="n">
-        <v>30229.0</v>
+        <v>30130.0</v>
       </c>
       <c r="D157" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>305.0</v>
+        <v>252.0</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>147.0</v>
+        <v>7.0</v>
       </c>
       <c r="G157" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H157" s="2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="I157" s="2" t="n">
         <v>1.0</v>
@@ -6645,26 +6810,26 @@
       <c r="A158" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B158" s="19" t="s">
-        <v>163</v>
+      <c r="B158" s="15" t="s">
+        <v>168</v>
       </c>
       <c r="C158" s="13" t="n">
-        <v>30230.0</v>
+        <v>30386.0</v>
       </c>
       <c r="D158" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="E158" s="3" t="n">
-        <v>296.0</v>
+      <c r="E158" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="F158" s="3" t="n">
-        <v>99.0</v>
+        <v>0.0</v>
       </c>
       <c r="G158" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H158" s="3" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I158" s="3" t="n">
         <v>1.0</v>
@@ -6680,26 +6845,26 @@
       <c r="A159" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B159" s="18" t="s">
-        <v>164</v>
+      <c r="B159" s="14" t="s">
+        <v>138</v>
       </c>
       <c r="C159" s="12" t="n">
-        <v>30231.0</v>
+        <v>30387.0</v>
       </c>
       <c r="D159" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>201.0</v>
+        <v>90.0</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G159" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H159" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I159" s="2" t="n">
         <v>1.0</v>
@@ -6715,20 +6880,20 @@
       <c r="A160" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B160" s="21" t="s">
-        <v>165</v>
+      <c r="B160" s="17" t="s">
+        <v>169</v>
       </c>
       <c r="C160" s="13" t="n">
-        <v>30232.0</v>
+        <v>30132.0</v>
       </c>
       <c r="D160" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E160" s="3" t="n">
-        <v>337.0</v>
+        <v>183.0</v>
       </c>
       <c r="F160" s="3" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="G160" s="11" t="n">
         <v>39590.0</v>
@@ -6751,19 +6916,19 @@
         <v>26</v>
       </c>
       <c r="B161" s="18" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C161" s="12" t="n">
-        <v>30233.0</v>
+        <v>30389.0</v>
       </c>
       <c r="D161" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>296.0</v>
+        <v>246.0</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="G161" s="10" t="n">
         <v>39590.0</v>
@@ -6786,25 +6951,25 @@
         <v>26</v>
       </c>
       <c r="B162" s="17" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C162" s="13" t="n">
-        <v>30234.0</v>
+        <v>30134.0</v>
       </c>
       <c r="D162" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E162" s="3" t="n">
-        <v>171.0</v>
+        <v>194.0</v>
       </c>
       <c r="F162" s="3" t="n">
-        <v>1.0</v>
+        <v>105.0</v>
       </c>
       <c r="G162" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H162" s="3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I162" s="3" t="n">
         <v>1.0</v>
@@ -6820,26 +6985,26 @@
       <c r="A163" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B163" s="16" t="s">
-        <v>168</v>
+      <c r="B163" s="14" t="s">
+        <v>172</v>
       </c>
       <c r="C163" s="12" t="n">
-        <v>30235.0</v>
+        <v>30137.0</v>
       </c>
       <c r="D163" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E163" s="2" t="n">
-        <v>165.0</v>
+      <c r="E163" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G163" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H163" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I163" s="2" t="n">
         <v>1.0</v>
@@ -6855,26 +7020,26 @@
       <c r="A164" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B164" s="17" t="s">
-        <v>169</v>
+      <c r="B164" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="C164" s="13" t="n">
-        <v>30238.0</v>
+        <v>30393.0</v>
       </c>
       <c r="D164" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="E164" s="3" t="n">
-        <v>133.0</v>
+      <c r="E164" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="F164" s="3" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G164" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H164" s="3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I164" s="3" t="n">
         <v>1.0</v>
@@ -6890,26 +7055,26 @@
       <c r="A165" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B165" s="18" t="s">
-        <v>170</v>
+      <c r="B165" s="20" t="s">
+        <v>174</v>
       </c>
       <c r="C165" s="12" t="n">
-        <v>30240.0</v>
+        <v>30140.0</v>
       </c>
       <c r="D165" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E165" s="2" t="n">
-        <v>233.0</v>
+        <v>384.0</v>
       </c>
       <c r="F165" s="2" t="n">
-        <v>67.0</v>
+        <v>87.0</v>
       </c>
       <c r="G165" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H165" s="2" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="I165" s="2" t="n">
         <v>1.0</v>
@@ -6925,26 +7090,26 @@
       <c r="A166" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B166" s="19" t="s">
-        <v>171</v>
+      <c r="B166" s="23" t="s">
+        <v>175</v>
       </c>
       <c r="C166" s="13" t="n">
-        <v>30241.0</v>
+        <v>30141.0</v>
       </c>
       <c r="D166" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E166" s="3" t="n">
-        <v>224.0</v>
+        <v>461.0</v>
       </c>
       <c r="F166" s="3" t="n">
-        <v>4.0</v>
+        <v>614.0</v>
       </c>
       <c r="G166" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H166" s="3" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="I166" s="3" t="n">
         <v>1.0</v>
@@ -6960,20 +7125,20 @@
       <c r="A167" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B167" s="18" t="s">
-        <v>172</v>
+      <c r="B167" s="20" t="s">
+        <v>176</v>
       </c>
       <c r="C167" s="12" t="n">
-        <v>30242.0</v>
+        <v>30397.0</v>
       </c>
       <c r="D167" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>296.0</v>
+        <v>329.0</v>
       </c>
       <c r="F167" s="2" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G167" s="10" t="n">
         <v>39590.0</v>
@@ -6995,26 +7160,26 @@
       <c r="A168" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B168" s="19" t="s">
-        <v>173</v>
+      <c r="B168" s="23" t="s">
+        <v>177</v>
       </c>
       <c r="C168" s="13" t="n">
-        <v>30244.0</v>
+        <v>30142.0</v>
       </c>
       <c r="D168" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E168" s="3" t="n">
-        <v>239.0</v>
+        <v>432.0</v>
       </c>
       <c r="F168" s="3" t="n">
-        <v>29.0</v>
+        <v>470.0</v>
       </c>
       <c r="G168" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H168" s="3" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="I168" s="3" t="n">
         <v>1.0</v>
@@ -7031,25 +7196,25 @@
         <v>26</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C169" s="12" t="n">
-        <v>30245.0</v>
+        <v>30398.0</v>
       </c>
       <c r="D169" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E169" s="2" t="n">
-        <v>310.0</v>
+        <v>314.0</v>
       </c>
       <c r="F169" s="2" t="n">
-        <v>12.0</v>
+        <v>155.0</v>
       </c>
       <c r="G169" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H169" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I169" s="2" t="n">
         <v>1.0</v>
@@ -7066,25 +7231,25 @@
         <v>26</v>
       </c>
       <c r="B170" s="17" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C170" s="13" t="n">
-        <v>30246.0</v>
+        <v>30143.0</v>
       </c>
       <c r="D170" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E170" s="3" t="n">
-        <v>128.0</v>
+        <v>145.0</v>
       </c>
       <c r="F170" s="3" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G170" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H170" s="3" t="n">
         <v>2.0</v>
-      </c>
-      <c r="G170" s="11" t="n">
-        <v>39590.0</v>
-      </c>
-      <c r="H170" s="3" t="n">
-        <v>1.0</v>
       </c>
       <c r="I170" s="3" t="n">
         <v>1.0</v>
@@ -7100,26 +7265,26 @@
       <c r="A171" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B171" s="20" t="s">
-        <v>175</v>
+      <c r="B171" s="18" t="s">
+        <v>179</v>
       </c>
       <c r="C171" s="12" t="n">
-        <v>30251.0</v>
+        <v>30144.0</v>
       </c>
       <c r="D171" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>382.0</v>
+        <v>210.0</v>
       </c>
       <c r="F171" s="2" t="n">
-        <v>355.0</v>
+        <v>4.0</v>
       </c>
       <c r="G171" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H171" s="2" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="I171" s="2" t="n">
         <v>1.0</v>
@@ -7135,34 +7300,2064 @@
       <c r="A172" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B172" s="23" t="s">
-        <v>176</v>
+      <c r="B172" s="21" t="s">
+        <v>180</v>
       </c>
       <c r="C172" s="13" t="n">
+        <v>30400.0</v>
+      </c>
+      <c r="D172" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E172" s="3" t="n">
+        <v>381.0</v>
+      </c>
+      <c r="F172" s="3" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="G172" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H172" s="3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I172" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J172" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K172" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B173" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C173" s="12" t="n">
+        <v>30145.0</v>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="F173" s="2" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="G173" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H173" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I173" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J173" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K173" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B174" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C174" s="13" t="n">
+        <v>30149.0</v>
+      </c>
+      <c r="D174" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E174" s="3" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="F174" s="3" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="G174" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H174" s="3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I174" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J174" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K174" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C175" s="12" t="n">
+        <v>30150.0</v>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F175" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G175" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H175" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I175" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J175" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K175" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C176" s="13" t="n">
+        <v>30151.0</v>
+      </c>
+      <c r="D176" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F176" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G176" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H176" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I176" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J176" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K176" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B177" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C177" s="12" t="n">
+        <v>30154.0</v>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="F177" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G177" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H177" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I177" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J177" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K177" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B178" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C178" s="13" t="n">
+        <v>30157.0</v>
+      </c>
+      <c r="D178" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E178" s="3" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F178" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G178" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H178" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I178" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J178" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K178" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B179" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C179" s="12" t="n">
+        <v>30159.0</v>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="F179" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G179" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H179" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I179" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J179" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K179" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B180" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C180" s="13" t="n">
+        <v>30160.0</v>
+      </c>
+      <c r="D180" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E180" s="3" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="F180" s="3" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="G180" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H180" s="3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I180" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J180" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K180" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B181" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C181" s="12" t="n">
+        <v>30161.0</v>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="F181" s="2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G181" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H181" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I181" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J181" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K181" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B182" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C182" s="13" t="n">
+        <v>30162.0</v>
+      </c>
+      <c r="D182" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E182" s="3" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="F182" s="3" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="G182" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H182" s="3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I182" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J182" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K182" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B183" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C183" s="12" t="n">
+        <v>30164.0</v>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F183" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G183" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H183" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I183" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J183" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K183" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B184" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C184" s="13" t="n">
+        <v>30165.0</v>
+      </c>
+      <c r="D184" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E184" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F184" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G184" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H184" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I184" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J184" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K184" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B185" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C185" s="12" t="n">
+        <v>30172.0</v>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="F185" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G185" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H185" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I185" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J185" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K185" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B186" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C186" s="13" t="n">
+        <v>30176.0</v>
+      </c>
+      <c r="D186" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E186" s="3" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="F186" s="3" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="G186" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H186" s="3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I186" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J186" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K186" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B187" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C187" s="12" t="n">
+        <v>30179.0</v>
+      </c>
+      <c r="D187" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="F187" s="2" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="G187" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H187" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I187" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J187" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K187" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B188" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C188" s="13" t="n">
+        <v>30180.0</v>
+      </c>
+      <c r="D188" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E188" s="3" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="F188" s="3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G188" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H188" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I188" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J188" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K188" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B189" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C189" s="12" t="n">
+        <v>30182.0</v>
+      </c>
+      <c r="D189" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="F189" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G189" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H189" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I189" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J189" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K189" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B190" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C190" s="13" t="n">
+        <v>30183.0</v>
+      </c>
+      <c r="D190" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E190" s="3" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="F190" s="3" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="G190" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H190" s="3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I190" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J190" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K190" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B191" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C191" s="12" t="n">
+        <v>30185.0</v>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="F191" s="2" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="G191" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H191" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I191" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J191" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K191" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B192" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C192" s="13" t="n">
+        <v>30187.0</v>
+      </c>
+      <c r="D192" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E192" s="3" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="F192" s="3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G192" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H192" s="3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I192" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J192" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K192" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B193" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C193" s="12" t="n">
+        <v>30191.0</v>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="F193" s="2" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="G193" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H193" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I193" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J193" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K193" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B194" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C194" s="13" t="n">
+        <v>30192.0</v>
+      </c>
+      <c r="D194" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E194" s="3" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="F194" s="3" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="G194" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H194" s="3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I194" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J194" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K194" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B195" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C195" s="12" t="n">
+        <v>30194.0</v>
+      </c>
+      <c r="D195" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="F195" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G195" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H195" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I195" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J195" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K195" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B196" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C196" s="13" t="n">
+        <v>30195.0</v>
+      </c>
+      <c r="D196" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E196" s="3" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="F196" s="3" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="G196" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H196" s="3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I196" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J196" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K196" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B197" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C197" s="12" t="n">
+        <v>30196.0</v>
+      </c>
+      <c r="D197" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="F197" s="2" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="G197" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H197" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I197" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J197" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K197" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B198" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C198" s="13" t="n">
+        <v>30198.0</v>
+      </c>
+      <c r="D198" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E198" s="3" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="F198" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G198" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H198" s="3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I198" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J198" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K198" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B199" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C199" s="12" t="n">
+        <v>30199.0</v>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="F199" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G199" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H199" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I199" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J199" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K199" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B200" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C200" s="13" t="n">
+        <v>30200.0</v>
+      </c>
+      <c r="D200" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E200" s="3" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="F200" s="3" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="G200" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H200" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I200" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J200" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K200" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B201" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C201" s="12" t="n">
+        <v>30201.0</v>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F201" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G201" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H201" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I201" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J201" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K201" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B202" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C202" s="13" t="n">
+        <v>30203.0</v>
+      </c>
+      <c r="D202" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E202" s="3" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="F202" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G202" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H202" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I202" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J202" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K202" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B203" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C203" s="12" t="n">
+        <v>30205.0</v>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="F203" s="2" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="G203" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H203" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I203" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J203" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K203" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B204" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C204" s="13" t="n">
+        <v>30206.0</v>
+      </c>
+      <c r="D204" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E204" s="3" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="F204" s="3" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="G204" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H204" s="3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I204" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J204" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K204" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B205" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C205" s="12" t="n">
+        <v>30208.0</v>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="F205" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G205" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H205" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I205" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J205" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K205" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B206" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C206" s="13" t="n">
+        <v>30209.0</v>
+      </c>
+      <c r="D206" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E206" s="3" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="F206" s="3" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="G206" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H206" s="3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I206" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J206" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K206" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B207" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C207" s="12" t="n">
+        <v>30210.0</v>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="F207" s="2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G207" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H207" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I207" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J207" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K207" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B208" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C208" s="13" t="n">
+        <v>30214.0</v>
+      </c>
+      <c r="D208" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E208" s="3" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="F208" s="3" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="G208" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H208" s="3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I208" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J208" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K208" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B209" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C209" s="12" t="n">
+        <v>30215.0</v>
+      </c>
+      <c r="D209" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="F209" s="2" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G209" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H209" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I209" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J209" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K209" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B210" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C210" s="13" t="n">
+        <v>30219.0</v>
+      </c>
+      <c r="D210" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E210" s="3" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="F210" s="3" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G210" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H210" s="3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I210" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J210" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K210" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B211" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C211" s="12" t="n">
+        <v>30222.0</v>
+      </c>
+      <c r="D211" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>441.0</v>
+      </c>
+      <c r="F211" s="2" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="G211" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H211" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I211" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J211" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K211" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B212" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C212" s="13" t="n">
+        <v>30224.0</v>
+      </c>
+      <c r="D212" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E212" s="3" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="F212" s="3" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="G212" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H212" s="3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I212" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J212" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K212" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B213" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C213" s="12" t="n">
+        <v>30225.0</v>
+      </c>
+      <c r="D213" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="F213" s="2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G213" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H213" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I213" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J213" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K213" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B214" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C214" s="13" t="n">
+        <v>30227.0</v>
+      </c>
+      <c r="D214" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E214" s="3" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="F214" s="3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G214" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H214" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I214" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J214" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K214" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B215" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C215" s="12" t="n">
+        <v>30229.0</v>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="F215" s="2" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="G215" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H215" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I215" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J215" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K215" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B216" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C216" s="13" t="n">
+        <v>30230.0</v>
+      </c>
+      <c r="D216" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E216" s="3" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="F216" s="3" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="G216" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H216" s="3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I216" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J216" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K216" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B217" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C217" s="12" t="n">
+        <v>30231.0</v>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="F217" s="2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G217" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H217" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I217" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J217" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K217" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B218" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C218" s="13" t="n">
+        <v>30232.0</v>
+      </c>
+      <c r="D218" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E218" s="3" t="n">
+        <v>337.0</v>
+      </c>
+      <c r="F218" s="3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G218" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H218" s="3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I218" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J218" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K218" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B219" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C219" s="12" t="n">
+        <v>30233.0</v>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="F219" s="2" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G219" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H219" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I219" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J219" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K219" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B220" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C220" s="13" t="n">
+        <v>30234.0</v>
+      </c>
+      <c r="D220" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E220" s="3" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="F220" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G220" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H220" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I220" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J220" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K220" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B221" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C221" s="12" t="n">
+        <v>30235.0</v>
+      </c>
+      <c r="D221" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="F221" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G221" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H221" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I221" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J221" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K221" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B222" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C222" s="13" t="n">
+        <v>30238.0</v>
+      </c>
+      <c r="D222" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E222" s="3" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="F222" s="3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G222" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H222" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I222" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J222" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K222" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B223" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C223" s="12" t="n">
+        <v>30240.0</v>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="F223" s="2" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="G223" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H223" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I223" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J223" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K223" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B224" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C224" s="13" t="n">
+        <v>30241.0</v>
+      </c>
+      <c r="D224" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E224" s="3" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="F224" s="3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G224" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H224" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I224" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J224" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K224" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B225" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C225" s="12" t="n">
+        <v>30242.0</v>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="F225" s="2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G225" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H225" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I225" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J225" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K225" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B226" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C226" s="13" t="n">
+        <v>30244.0</v>
+      </c>
+      <c r="D226" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E226" s="3" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="F226" s="3" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="G226" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H226" s="3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I226" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J226" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K226" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B227" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C227" s="12" t="n">
+        <v>30245.0</v>
+      </c>
+      <c r="D227" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>310.0</v>
+      </c>
+      <c r="F227" s="2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G227" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H227" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I227" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J227" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K227" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B228" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C228" s="13" t="n">
+        <v>30246.0</v>
+      </c>
+      <c r="D228" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E228" s="3" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="F228" s="3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G228" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H228" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I228" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J228" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K228" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B229" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C229" s="12" t="n">
+        <v>30251.0</v>
+      </c>
+      <c r="D229" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>382.0</v>
+      </c>
+      <c r="F229" s="2" t="n">
+        <v>355.0</v>
+      </c>
+      <c r="G229" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H229" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I229" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J229" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K229" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B230" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C230" s="13" t="n">
         <v>30252.0</v>
       </c>
-      <c r="D172" s="3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E172" s="3" t="n">
+      <c r="D230" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E230" s="3" t="n">
         <v>470.0</v>
       </c>
-      <c r="F172" s="3" t="n">
+      <c r="F230" s="3" t="n">
         <v>12217.0</v>
       </c>
-      <c r="G172" s="11" t="n">
-        <v>39590.0</v>
-      </c>
-      <c r="H172" s="3" t="n">
+      <c r="G230" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H230" s="3" t="n">
         <v>73.0</v>
       </c>
-      <c r="I172" s="3" t="n">
+      <c r="I230" s="3" t="n">
         <v>25.0</v>
       </c>
-      <c r="J172" s="3" t="n">
+      <c r="J230" s="3" t="n">
         <v>40.0</v>
       </c>
-      <c r="K172" s="3" t="n">
+      <c r="K230" s="3" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -7339,6 +9534,64 @@
     <hyperlink ref="C170" r:id="rId169"/>
     <hyperlink ref="C171" r:id="rId170"/>
     <hyperlink ref="C172" r:id="rId171"/>
+    <hyperlink ref="C173" r:id="rId172"/>
+    <hyperlink ref="C174" r:id="rId173"/>
+    <hyperlink ref="C175" r:id="rId174"/>
+    <hyperlink ref="C176" r:id="rId175"/>
+    <hyperlink ref="C177" r:id="rId176"/>
+    <hyperlink ref="C178" r:id="rId177"/>
+    <hyperlink ref="C179" r:id="rId178"/>
+    <hyperlink ref="C180" r:id="rId179"/>
+    <hyperlink ref="C181" r:id="rId180"/>
+    <hyperlink ref="C182" r:id="rId181"/>
+    <hyperlink ref="C183" r:id="rId182"/>
+    <hyperlink ref="C184" r:id="rId183"/>
+    <hyperlink ref="C185" r:id="rId184"/>
+    <hyperlink ref="C186" r:id="rId185"/>
+    <hyperlink ref="C187" r:id="rId186"/>
+    <hyperlink ref="C188" r:id="rId187"/>
+    <hyperlink ref="C189" r:id="rId188"/>
+    <hyperlink ref="C190" r:id="rId189"/>
+    <hyperlink ref="C191" r:id="rId190"/>
+    <hyperlink ref="C192" r:id="rId191"/>
+    <hyperlink ref="C193" r:id="rId192"/>
+    <hyperlink ref="C194" r:id="rId193"/>
+    <hyperlink ref="C195" r:id="rId194"/>
+    <hyperlink ref="C196" r:id="rId195"/>
+    <hyperlink ref="C197" r:id="rId196"/>
+    <hyperlink ref="C198" r:id="rId197"/>
+    <hyperlink ref="C199" r:id="rId198"/>
+    <hyperlink ref="C200" r:id="rId199"/>
+    <hyperlink ref="C201" r:id="rId200"/>
+    <hyperlink ref="C202" r:id="rId201"/>
+    <hyperlink ref="C203" r:id="rId202"/>
+    <hyperlink ref="C204" r:id="rId203"/>
+    <hyperlink ref="C205" r:id="rId204"/>
+    <hyperlink ref="C206" r:id="rId205"/>
+    <hyperlink ref="C207" r:id="rId206"/>
+    <hyperlink ref="C208" r:id="rId207"/>
+    <hyperlink ref="C209" r:id="rId208"/>
+    <hyperlink ref="C210" r:id="rId209"/>
+    <hyperlink ref="C211" r:id="rId210"/>
+    <hyperlink ref="C212" r:id="rId211"/>
+    <hyperlink ref="C213" r:id="rId212"/>
+    <hyperlink ref="C214" r:id="rId213"/>
+    <hyperlink ref="C215" r:id="rId214"/>
+    <hyperlink ref="C216" r:id="rId215"/>
+    <hyperlink ref="C217" r:id="rId216"/>
+    <hyperlink ref="C218" r:id="rId217"/>
+    <hyperlink ref="C219" r:id="rId218"/>
+    <hyperlink ref="C220" r:id="rId219"/>
+    <hyperlink ref="C221" r:id="rId220"/>
+    <hyperlink ref="C222" r:id="rId221"/>
+    <hyperlink ref="C223" r:id="rId222"/>
+    <hyperlink ref="C224" r:id="rId223"/>
+    <hyperlink ref="C225" r:id="rId224"/>
+    <hyperlink ref="C226" r:id="rId225"/>
+    <hyperlink ref="C227" r:id="rId226"/>
+    <hyperlink ref="C228" r:id="rId227"/>
+    <hyperlink ref="C229" r:id="rId228"/>
+    <hyperlink ref="C230" r:id="rId229"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/xlsx/stat-top-by-friends-count.xlsx
+++ b/xlsx/stat-top-by-friends-count.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Топ-55 по числу друзей" r:id="rId3" sheetId="1"/>
+    <sheet name="Топ-61 по числу друзей" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="74">
   <si>
     <t>#</t>
   </si>
@@ -53,13 +53,16 @@
     <t>Saida</t>
   </si>
   <si>
-    <t>2</t>
+    <t>2–3</t>
   </si>
   <si>
     <t>Keciot</t>
   </si>
   <si>
-    <t>3–55</t>
+    <t>Sallynar</t>
+  </si>
+  <si>
+    <t>4–61</t>
   </si>
   <si>
     <t>Deniss</t>
@@ -219,6 +222,18 @@
   </si>
   <si>
     <t>Igrok_simfer</t>
+  </si>
+  <si>
+    <t>NAREG</t>
+  </si>
+  <si>
+    <t>new_russian</t>
+  </si>
+  <si>
+    <t>?????</t>
+  </si>
+  <si>
+    <t>den4900</t>
   </si>
 </sst>
 </file>
@@ -803,7 +818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -929,31 +944,31 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="C4" s="13" t="n">
-        <v>30000.0</v>
+        <v>30103.0</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>137.0</v>
+        <v>405.0</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>6.0</v>
+        <v>2115.0</v>
       </c>
       <c r="G4" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>0.0</v>
@@ -964,28 +979,28 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>30002.0</v>
+        <v>30000.0</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>211.0</v>
+        <v>137.0</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>30.0</v>
+        <v>6.0</v>
       </c>
       <c r="G5" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>1.0</v>
@@ -999,28 +1014,28 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>30003.0</v>
+        <v>30002.0</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>19</v>
+      <c r="E6" s="3" t="n">
+        <v>211.0</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>1.0</v>
+        <v>30.0</v>
       </c>
       <c r="G6" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>1.0</v>
@@ -1034,28 +1049,28 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="12" t="n">
+        <v>30003.0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="12" t="n">
-        <v>30004.0</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>332.0</v>
-      </c>
       <c r="F7" s="2" t="n">
-        <v>52.0</v>
+        <v>1.0</v>
       </c>
       <c r="G7" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>1.0</v>
@@ -1069,22 +1084,22 @@
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>30005.0</v>
+        <v>30004.0</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>145.0</v>
+        <v>332.0</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>30.0</v>
+        <v>52.0</v>
       </c>
       <c r="G8" s="11" t="n">
         <v>39590.0</v>
@@ -1104,28 +1119,28 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>30007.0</v>
+        <v>30005.0</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>19</v>
+      <c r="E9" s="2" t="n">
+        <v>145.0</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="G9" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>1.0</v>
@@ -1139,28 +1154,28 @@
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>30008.0</v>
+        <v>30007.0</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="E10" s="3" t="n">
-        <v>231.0</v>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>54.0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I10" s="3" t="n">
         <v>1.0</v>
@@ -1174,28 +1189,28 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>30009.0</v>
+        <v>30008.0</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>217.0</v>
+        <v>231.0</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>7.0</v>
+        <v>54.0</v>
       </c>
       <c r="G11" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>1.0</v>
@@ -1209,22 +1224,22 @@
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="13" t="n">
-        <v>30015.0</v>
+        <v>30009.0</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>193.0</v>
+        <v>217.0</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>54.0</v>
+        <v>7.0</v>
       </c>
       <c r="G12" s="11" t="n">
         <v>39590.0</v>
@@ -1244,22 +1259,22 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>30017.0</v>
+        <v>30015.0</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>298.0</v>
+        <v>193.0</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>43.0</v>
+        <v>54.0</v>
       </c>
       <c r="G13" s="10" t="n">
         <v>39590.0</v>
@@ -1279,22 +1294,22 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="13" t="n">
-        <v>30018.0</v>
+        <v>30017.0</v>
       </c>
       <c r="D14" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>216.0</v>
+        <v>298.0</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>73.0</v>
+        <v>43.0</v>
       </c>
       <c r="G14" s="11" t="n">
         <v>39590.0</v>
@@ -1314,28 +1329,28 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>30021.0</v>
+        <v>30018.0</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>306.0</v>
+        <v>216.0</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1256.0</v>
+        <v>73.0</v>
       </c>
       <c r="G15" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>1.0</v>
@@ -1349,28 +1364,28 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="13" t="n">
-        <v>30023.0</v>
+        <v>30021.0</v>
       </c>
       <c r="D16" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>223.0</v>
+        <v>306.0</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>10.0</v>
+        <v>1256.0</v>
       </c>
       <c r="G16" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="I16" s="3" t="n">
         <v>1.0</v>
@@ -1384,34 +1399,34 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>30028.0</v>
+        <v>30023.0</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>388.0</v>
+        <v>223.0</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>106.0</v>
+        <v>10.0</v>
       </c>
       <c r="G17" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>1.0</v>
@@ -1419,34 +1434,34 @@
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="13" t="n">
-        <v>30029.0</v>
+        <v>30028.0</v>
       </c>
       <c r="D18" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>135.0</v>
+        <v>388.0</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>3.0</v>
+        <v>106.0</v>
       </c>
       <c r="G18" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K18" s="3" t="n">
         <v>1.0</v>
@@ -1454,22 +1469,22 @@
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>30030.0</v>
+        <v>30029.0</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>179.0</v>
+        <v>135.0</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="G19" s="10" t="n">
         <v>39590.0</v>
@@ -1489,28 +1504,28 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="13" t="n">
-        <v>30032.0</v>
+        <v>30030.0</v>
       </c>
       <c r="D20" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>230.0</v>
+        <v>179.0</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>78.0</v>
+        <v>5.0</v>
       </c>
       <c r="G20" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I20" s="3" t="n">
         <v>1.0</v>
@@ -1524,28 +1539,28 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>30033.0</v>
+        <v>30032.0</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>19</v>
+      <c r="E21" s="2" t="n">
+        <v>230.0</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0.0</v>
+        <v>78.0</v>
       </c>
       <c r="G21" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>1.0</v>
@@ -1559,28 +1574,28 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="13" t="n">
-        <v>30034.0</v>
+        <v>30033.0</v>
       </c>
       <c r="D22" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="E22" s="3" t="n">
-        <v>274.0</v>
+      <c r="E22" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>345.0</v>
+        <v>0.0</v>
       </c>
       <c r="G22" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="I22" s="3" t="n">
         <v>1.0</v>
@@ -1594,28 +1609,28 @@
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>30035.0</v>
+        <v>30034.0</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>284.0</v>
+        <v>274.0</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>17.0</v>
+        <v>345.0</v>
       </c>
       <c r="G23" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>1.0</v>
@@ -1629,28 +1644,28 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="13" t="n">
-        <v>30046.0</v>
+        <v>30035.0</v>
       </c>
       <c r="D24" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>198.0</v>
+        <v>284.0</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="G24" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I24" s="3" t="n">
         <v>1.0</v>
@@ -1664,22 +1679,22 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>30047.0</v>
+        <v>30046.0</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>146.0</v>
+        <v>198.0</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G25" s="10" t="n">
         <v>39590.0</v>
@@ -1699,28 +1714,28 @@
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="13" t="n">
-        <v>30049.0</v>
+        <v>30047.0</v>
       </c>
       <c r="D26" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>19</v>
+      <c r="E26" s="3" t="n">
+        <v>146.0</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G26" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I26" s="3" t="n">
         <v>1.0</v>
@@ -1734,34 +1749,34 @@
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>30050.0</v>
+        <v>30049.0</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E27" s="2" t="n">
-        <v>254.0</v>
+      <c r="E27" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>73.0</v>
+        <v>2.0</v>
       </c>
       <c r="G27" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K27" s="2" t="n">
         <v>1.0</v>
@@ -1769,34 +1784,34 @@
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="13" t="n">
-        <v>30052.0</v>
+        <v>30050.0</v>
       </c>
       <c r="D28" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>170.0</v>
+        <v>254.0</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>10.0</v>
+        <v>73.0</v>
       </c>
       <c r="G28" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I28" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K28" s="3" t="n">
         <v>1.0</v>
@@ -1804,28 +1819,28 @@
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="12" t="n">
-        <v>30053.0</v>
+        <v>30052.0</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>19</v>
+      <c r="E29" s="2" t="n">
+        <v>170.0</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G29" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>1.0</v>
@@ -1839,19 +1854,19 @@
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="13" t="n">
-        <v>30055.0</v>
+        <v>30053.0</v>
       </c>
       <c r="D30" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="E30" s="3" t="n">
-        <v>167.0</v>
+      <c r="E30" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="F30" s="3" t="n">
         <v>1.0</v>
@@ -1860,7 +1875,7 @@
         <v>39590.0</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I30" s="3" t="n">
         <v>1.0</v>
@@ -1874,28 +1889,28 @@
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="12" t="n">
-        <v>30056.0</v>
+        <v>30055.0</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>276.0</v>
+        <v>167.0</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>39.0</v>
+        <v>1.0</v>
       </c>
       <c r="G31" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>1.0</v>
@@ -1909,28 +1924,28 @@
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="13" t="n">
-        <v>30057.0</v>
+        <v>30056.0</v>
       </c>
       <c r="D32" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>219.0</v>
+        <v>276.0</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>181.0</v>
+        <v>39.0</v>
       </c>
       <c r="G32" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="I32" s="3" t="n">
         <v>1.0</v>
@@ -1944,28 +1959,28 @@
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="12" t="n">
-        <v>30059.0</v>
+        <v>30057.0</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>360.0</v>
+        <v>219.0</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>35.0</v>
+        <v>181.0</v>
       </c>
       <c r="G33" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>1.0</v>
@@ -1979,28 +1994,28 @@
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="13" t="n">
-        <v>30060.0</v>
+        <v>30059.0</v>
       </c>
       <c r="D34" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>19</v>
+      <c r="E34" s="3" t="n">
+        <v>360.0</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="G34" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I34" s="3" t="n">
         <v>1.0</v>
@@ -2014,28 +2029,28 @@
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C35" s="12" t="n">
-        <v>30062.0</v>
+        <v>30060.0</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E35" s="2" t="n">
-        <v>246.0</v>
+      <c r="E35" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="G35" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>1.0</v>
@@ -2049,28 +2064,28 @@
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="13" t="n">
-        <v>30063.0</v>
+        <v>30062.0</v>
       </c>
       <c r="D36" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>19</v>
+      <c r="E36" s="3" t="n">
+        <v>246.0</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G36" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I36" s="3" t="n">
         <v>1.0</v>
@@ -2084,28 +2099,28 @@
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="12" t="n">
-        <v>30066.0</v>
+        <v>30063.0</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E37" s="2" t="n">
-        <v>213.0</v>
+      <c r="E37" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
       <c r="G37" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I37" s="2" t="n">
         <v>1.0</v>
@@ -2119,28 +2134,28 @@
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="13" t="n">
-        <v>30071.0</v>
+        <v>30066.0</v>
       </c>
       <c r="D38" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>139.0</v>
+        <v>213.0</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>4.0</v>
+        <v>34.0</v>
       </c>
       <c r="G38" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I38" s="3" t="n">
         <v>1.0</v>
@@ -2154,22 +2169,22 @@
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C39" s="12" t="n">
-        <v>30072.0</v>
+        <v>30071.0</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>291.0</v>
+        <v>139.0</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G39" s="10" t="n">
         <v>39590.0</v>
@@ -2189,28 +2204,28 @@
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C40" s="13" t="n">
-        <v>30073.0</v>
+        <v>30072.0</v>
       </c>
       <c r="D40" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>562.0</v>
+        <v>291.0</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>22.0</v>
+        <v>2.0</v>
       </c>
       <c r="G40" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I40" s="3" t="n">
         <v>1.0</v>
@@ -2224,22 +2239,22 @@
     </row>
     <row r="41">
       <c r="A41" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="24" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="12" t="n">
-        <v>30076.0</v>
+        <v>30073.0</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>314.0</v>
+        <v>562.0</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>97.0</v>
+        <v>22.0</v>
       </c>
       <c r="G41" s="10" t="n">
         <v>39590.0</v>
@@ -2259,28 +2274,28 @@
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C42" s="13" t="n">
-        <v>30077.0</v>
+        <v>30076.0</v>
       </c>
       <c r="D42" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>134.0</v>
+        <v>314.0</v>
       </c>
       <c r="F42" s="3" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="G42" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H42" s="3" t="n">
         <v>3.0</v>
-      </c>
-      <c r="G42" s="11" t="n">
-        <v>39590.0</v>
-      </c>
-      <c r="H42" s="3" t="n">
-        <v>1.0</v>
       </c>
       <c r="I42" s="3" t="n">
         <v>1.0</v>
@@ -2294,28 +2309,28 @@
     </row>
     <row r="43">
       <c r="A43" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C43" s="12" t="n">
-        <v>30080.0</v>
+        <v>30077.0</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>161.0</v>
+        <v>134.0</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="G43" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>1.0</v>
@@ -2329,28 +2344,28 @@
     </row>
     <row r="44">
       <c r="A44" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C44" s="13" t="n">
-        <v>30081.0</v>
+        <v>30080.0</v>
       </c>
       <c r="D44" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E44" s="3" t="n">
-        <v>162.0</v>
+        <v>161.0</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="G44" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I44" s="3" t="n">
         <v>1.0</v>
@@ -2364,28 +2379,28 @@
     </row>
     <row r="45">
       <c r="A45" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="12" t="n">
-        <v>30082.0</v>
+        <v>30081.0</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>466.0</v>
+        <v>162.0</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="G45" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I45" s="2" t="n">
         <v>1.0</v>
@@ -2399,22 +2414,22 @@
     </row>
     <row r="46">
       <c r="A46" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="23" t="s">
         <v>59</v>
       </c>
       <c r="C46" s="13" t="n">
-        <v>30084.0</v>
+        <v>30082.0</v>
       </c>
       <c r="D46" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E46" s="3" t="n">
-        <v>221.0</v>
+        <v>466.0</v>
       </c>
       <c r="F46" s="3" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G46" s="11" t="n">
         <v>39590.0</v>
@@ -2434,28 +2449,28 @@
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C47" s="12" t="n">
-        <v>30085.0</v>
+        <v>30084.0</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>142.0</v>
+        <v>221.0</v>
       </c>
       <c r="F47" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G47" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H47" s="2" t="n">
         <v>2.0</v>
-      </c>
-      <c r="G47" s="10" t="n">
-        <v>39590.0</v>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>1.0</v>
       </c>
       <c r="I47" s="2" t="n">
         <v>1.0</v>
@@ -2469,28 +2484,28 @@
     </row>
     <row r="48">
       <c r="A48" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C48" s="13" t="n">
-        <v>30086.0</v>
+        <v>30085.0</v>
       </c>
       <c r="D48" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E48" s="3" t="n">
-        <v>155.0</v>
+        <v>142.0</v>
       </c>
       <c r="F48" s="3" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="G48" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I48" s="3" t="n">
         <v>1.0</v>
@@ -2504,22 +2519,22 @@
     </row>
     <row r="49">
       <c r="A49" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="12" t="n">
-        <v>30087.0</v>
+        <v>30086.0</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>202.0</v>
+        <v>155.0</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
       <c r="G49" s="10" t="n">
         <v>39590.0</v>
@@ -2539,28 +2554,28 @@
     </row>
     <row r="50">
       <c r="A50" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>63</v>
       </c>
       <c r="C50" s="13" t="n">
-        <v>30088.0</v>
+        <v>30087.0</v>
       </c>
       <c r="D50" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E50" s="3" t="n">
-        <v>133.0</v>
+        <v>202.0</v>
       </c>
       <c r="F50" s="3" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="G50" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I50" s="3" t="n">
         <v>1.0</v>
@@ -2574,28 +2589,28 @@
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="12" t="n">
-        <v>30089.0</v>
+        <v>30088.0</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>301.0</v>
+        <v>133.0</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="G51" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I51" s="2" t="n">
         <v>1.0</v>
@@ -2609,28 +2624,28 @@
     </row>
     <row r="52">
       <c r="A52" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="21" t="s">
         <v>65</v>
       </c>
       <c r="C52" s="13" t="n">
-        <v>30090.0</v>
+        <v>30089.0</v>
       </c>
       <c r="D52" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E52" s="3" t="n">
-        <v>136.0</v>
+        <v>301.0</v>
       </c>
       <c r="F52" s="3" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="G52" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I52" s="3" t="n">
         <v>1.0</v>
@@ -2644,28 +2659,28 @@
     </row>
     <row r="53">
       <c r="A53" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C53" s="12" t="n">
-        <v>30092.0</v>
+        <v>30090.0</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>19</v>
+      <c r="E53" s="2" t="n">
+        <v>136.0</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="G53" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I53" s="2" t="n">
         <v>1.0</v>
@@ -2679,28 +2694,28 @@
     </row>
     <row r="54">
       <c r="A54" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="15" t="s">
         <v>67</v>
       </c>
       <c r="C54" s="13" t="n">
-        <v>30095.0</v>
+        <v>30092.0</v>
       </c>
       <c r="D54" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="E54" s="3" t="n">
-        <v>235.0</v>
+      <c r="E54" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="F54" s="3" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="G54" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I54" s="3" t="n">
         <v>1.0</v>
@@ -2714,28 +2729,28 @@
     </row>
     <row r="55">
       <c r="A55" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C55" s="12" t="n">
-        <v>30097.0</v>
+        <v>30095.0</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>239.0</v>
+        <v>235.0</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>19.0</v>
+        <v>14.0</v>
       </c>
       <c r="G55" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I55" s="2" t="n">
         <v>1.0</v>
@@ -2749,19 +2764,19 @@
     </row>
     <row r="56">
       <c r="A56" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C56" s="13" t="n">
-        <v>30098.0</v>
+        <v>30097.0</v>
       </c>
       <c r="D56" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E56" s="3" t="n">
-        <v>214.0</v>
+        <v>239.0</v>
       </c>
       <c r="F56" s="3" t="n">
         <v>19.0</v>
@@ -2770,15 +2785,225 @@
         <v>39590.0</v>
       </c>
       <c r="H56" s="3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I56" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J56" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K56" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="12" t="n">
+        <v>30098.0</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G57" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H57" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="I56" s="3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J56" s="3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K56" s="3" t="n">
+      <c r="I57" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K57" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="13" t="n">
+        <v>30102.0</v>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G58" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I58" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J58" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K58" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="12" t="n">
+        <v>30104.0</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="G59" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J59" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K59" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="13" t="n">
+        <v>30105.0</v>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G60" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H60" s="3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I60" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J60" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K60" s="3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="12" t="n">
+        <v>30110.0</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>374.0</v>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="G61" s="10" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J61" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K61" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="13" t="n">
+        <v>30111.0</v>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G62" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H62" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I62" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J62" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K62" s="3" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2839,6 +3064,12 @@
     <hyperlink ref="C54" r:id="rId53"/>
     <hyperlink ref="C55" r:id="rId54"/>
     <hyperlink ref="C56" r:id="rId55"/>
+    <hyperlink ref="C57" r:id="rId56"/>
+    <hyperlink ref="C58" r:id="rId57"/>
+    <hyperlink ref="C59" r:id="rId58"/>
+    <hyperlink ref="C60" r:id="rId59"/>
+    <hyperlink ref="C61" r:id="rId60"/>
+    <hyperlink ref="C62" r:id="rId61"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/xlsx/stat-top-by-friends-count.xlsx
+++ b/xlsx/stat-top-by-friends-count.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Топ-61 по числу друзей" r:id="rId3" sheetId="1"/>
+    <sheet name="Топ-55 по числу друзей" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="69">
   <si>
     <t>#</t>
   </si>
@@ -53,16 +53,13 @@
     <t>Saida</t>
   </si>
   <si>
-    <t>2–3</t>
+    <t>2</t>
   </si>
   <si>
     <t>Keciot</t>
   </si>
   <si>
-    <t>Sallynar</t>
-  </si>
-  <si>
-    <t>4–61</t>
+    <t>3–55</t>
   </si>
   <si>
     <t>Deniss</t>
@@ -222,18 +219,6 @@
   </si>
   <si>
     <t>Igrok_simfer</t>
-  </si>
-  <si>
-    <t>NAREG</t>
-  </si>
-  <si>
-    <t>new_russian</t>
-  </si>
-  <si>
-    <t>?????</t>
-  </si>
-  <si>
-    <t>den4900</t>
   </si>
 </sst>
 </file>
@@ -818,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -944,31 +929,31 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>30103.0</v>
+        <v>30000.0</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>405.0</v>
+        <v>137.0</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>2115.0</v>
+        <v>6.0</v>
       </c>
       <c r="G4" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>0.0</v>
@@ -979,28 +964,28 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>30000.0</v>
+        <v>30002.0</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>137.0</v>
+        <v>211.0</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.0</v>
+        <v>30.0</v>
       </c>
       <c r="G5" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>1.0</v>
@@ -1014,28 +999,28 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>30002.0</v>
+        <v>30003.0</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="E6" s="3" t="n">
-        <v>211.0</v>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>30.0</v>
+        <v>1.0</v>
       </c>
       <c r="G6" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>1.0</v>
@@ -1049,28 +1034,28 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>30003.0</v>
+        <v>30004.0</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>20</v>
+      <c r="E7" s="2" t="n">
+        <v>332.0</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.0</v>
+        <v>52.0</v>
       </c>
       <c r="G7" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>1.0</v>
@@ -1084,22 +1069,22 @@
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>30004.0</v>
+        <v>30005.0</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>332.0</v>
+        <v>145.0</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>52.0</v>
+        <v>30.0</v>
       </c>
       <c r="G8" s="11" t="n">
         <v>39590.0</v>
@@ -1119,28 +1104,28 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>30005.0</v>
+        <v>30007.0</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>145.0</v>
+      <c r="E9" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="G9" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>1.0</v>
@@ -1154,28 +1139,28 @@
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>30007.0</v>
+        <v>30008.0</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>20</v>
+      <c r="E10" s="3" t="n">
+        <v>231.0</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>0.0</v>
+        <v>54.0</v>
       </c>
       <c r="G10" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I10" s="3" t="n">
         <v>1.0</v>
@@ -1189,28 +1174,28 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>30008.0</v>
+        <v>30009.0</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>231.0</v>
+        <v>217.0</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>54.0</v>
+        <v>7.0</v>
       </c>
       <c r="G11" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>1.0</v>
@@ -1224,22 +1209,22 @@
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="13" t="n">
-        <v>30009.0</v>
+        <v>30015.0</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>217.0</v>
+        <v>193.0</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>7.0</v>
+        <v>54.0</v>
       </c>
       <c r="G12" s="11" t="n">
         <v>39590.0</v>
@@ -1259,22 +1244,22 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>30015.0</v>
+        <v>30017.0</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>193.0</v>
+        <v>298.0</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>54.0</v>
+        <v>43.0</v>
       </c>
       <c r="G13" s="10" t="n">
         <v>39590.0</v>
@@ -1294,22 +1279,22 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="13" t="n">
-        <v>30017.0</v>
+        <v>30018.0</v>
       </c>
       <c r="D14" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>298.0</v>
+        <v>216.0</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>43.0</v>
+        <v>73.0</v>
       </c>
       <c r="G14" s="11" t="n">
         <v>39590.0</v>
@@ -1329,28 +1314,28 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>30018.0</v>
+        <v>30021.0</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>216.0</v>
+        <v>306.0</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>73.0</v>
+        <v>1256.0</v>
       </c>
       <c r="G15" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>1.0</v>
@@ -1364,28 +1349,28 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="13" t="n">
-        <v>30021.0</v>
+        <v>30023.0</v>
       </c>
       <c r="D16" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>306.0</v>
+        <v>223.0</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>1256.0</v>
+        <v>10.0</v>
       </c>
       <c r="G16" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="I16" s="3" t="n">
         <v>1.0</v>
@@ -1399,34 +1384,34 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>30023.0</v>
+        <v>30028.0</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>223.0</v>
+        <v>388.0</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>10.0</v>
+        <v>106.0</v>
       </c>
       <c r="G17" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H17" s="2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I17" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="I17" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="J17" s="2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>1.0</v>
@@ -1434,34 +1419,34 @@
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="13" t="n">
-        <v>30028.0</v>
+        <v>30029.0</v>
       </c>
       <c r="D18" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>388.0</v>
+        <v>135.0</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>106.0</v>
+        <v>3.0</v>
       </c>
       <c r="G18" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K18" s="3" t="n">
         <v>1.0</v>
@@ -1469,22 +1454,22 @@
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>30029.0</v>
+        <v>30030.0</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>135.0</v>
+        <v>179.0</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="G19" s="10" t="n">
         <v>39590.0</v>
@@ -1504,28 +1489,28 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="13" t="n">
-        <v>30030.0</v>
+        <v>30032.0</v>
       </c>
       <c r="D20" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>179.0</v>
+        <v>230.0</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>5.0</v>
+        <v>78.0</v>
       </c>
       <c r="G20" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I20" s="3" t="n">
         <v>1.0</v>
@@ -1539,28 +1524,28 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="12" t="n">
-        <v>30032.0</v>
+        <v>30033.0</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E21" s="2" t="n">
-        <v>230.0</v>
+      <c r="E21" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>78.0</v>
+        <v>0.0</v>
       </c>
       <c r="G21" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>1.0</v>
@@ -1574,28 +1559,28 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="13" t="n">
-        <v>30033.0</v>
+        <v>30034.0</v>
       </c>
       <c r="D22" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>20</v>
+      <c r="E22" s="3" t="n">
+        <v>274.0</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>0.0</v>
+        <v>345.0</v>
       </c>
       <c r="G22" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I22" s="3" t="n">
         <v>1.0</v>
@@ -1609,28 +1594,28 @@
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>30034.0</v>
+        <v>30035.0</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>274.0</v>
+        <v>284.0</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>345.0</v>
+        <v>17.0</v>
       </c>
       <c r="G23" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>1.0</v>
@@ -1644,28 +1629,28 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="13" t="n">
-        <v>30035.0</v>
+        <v>30046.0</v>
       </c>
       <c r="D24" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>284.0</v>
+        <v>198.0</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>17.0</v>
+        <v>4.0</v>
       </c>
       <c r="G24" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I24" s="3" t="n">
         <v>1.0</v>
@@ -1679,22 +1664,22 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>30046.0</v>
+        <v>30047.0</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>198.0</v>
+        <v>146.0</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G25" s="10" t="n">
         <v>39590.0</v>
@@ -1714,28 +1699,28 @@
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="13" t="n">
-        <v>30047.0</v>
+        <v>30049.0</v>
       </c>
       <c r="D26" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="E26" s="3" t="n">
-        <v>146.0</v>
+      <c r="E26" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="G26" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I26" s="3" t="n">
         <v>1.0</v>
@@ -1749,34 +1734,34 @@
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>30049.0</v>
+        <v>30050.0</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>20</v>
+      <c r="E27" s="2" t="n">
+        <v>254.0</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.0</v>
+        <v>73.0</v>
       </c>
       <c r="G27" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K27" s="2" t="n">
         <v>1.0</v>
@@ -1784,34 +1769,34 @@
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="13" t="n">
-        <v>30050.0</v>
+        <v>30052.0</v>
       </c>
       <c r="D28" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>254.0</v>
+        <v>170.0</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>73.0</v>
+        <v>10.0</v>
       </c>
       <c r="G28" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I28" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K28" s="3" t="n">
         <v>1.0</v>
@@ -1819,28 +1804,28 @@
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="12" t="n">
-        <v>30052.0</v>
+        <v>30053.0</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E29" s="2" t="n">
-        <v>170.0</v>
+      <c r="E29" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="G29" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>1.0</v>
@@ -1854,19 +1839,19 @@
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="13" t="n">
-        <v>30053.0</v>
+        <v>30055.0</v>
       </c>
       <c r="D30" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>20</v>
+      <c r="E30" s="3" t="n">
+        <v>167.0</v>
       </c>
       <c r="F30" s="3" t="n">
         <v>1.0</v>
@@ -1875,7 +1860,7 @@
         <v>39590.0</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I30" s="3" t="n">
         <v>1.0</v>
@@ -1889,28 +1874,28 @@
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="12" t="n">
-        <v>30055.0</v>
+        <v>30056.0</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>167.0</v>
+        <v>276.0</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.0</v>
+        <v>39.0</v>
       </c>
       <c r="G31" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>1.0</v>
@@ -1924,28 +1909,28 @@
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="13" t="n">
-        <v>30056.0</v>
+        <v>30057.0</v>
       </c>
       <c r="D32" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>276.0</v>
+        <v>219.0</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>39.0</v>
+        <v>181.0</v>
       </c>
       <c r="G32" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I32" s="3" t="n">
         <v>1.0</v>
@@ -1959,28 +1944,28 @@
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="12" t="n">
-        <v>30057.0</v>
+        <v>30059.0</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>219.0</v>
+        <v>360.0</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>181.0</v>
+        <v>35.0</v>
       </c>
       <c r="G33" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>1.0</v>
@@ -1994,28 +1979,28 @@
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="13" t="n">
-        <v>30059.0</v>
+        <v>30060.0</v>
       </c>
       <c r="D34" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="E34" s="3" t="n">
-        <v>360.0</v>
+      <c r="E34" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c r="G34" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I34" s="3" t="n">
         <v>1.0</v>
@@ -2029,28 +2014,28 @@
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C35" s="12" t="n">
-        <v>30060.0</v>
+        <v>30062.0</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>20</v>
+      <c r="E35" s="2" t="n">
+        <v>246.0</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G35" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>1.0</v>
@@ -2064,28 +2049,28 @@
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="13" t="n">
-        <v>30062.0</v>
+        <v>30063.0</v>
       </c>
       <c r="D36" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="E36" s="3" t="n">
-        <v>246.0</v>
+      <c r="E36" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="G36" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I36" s="3" t="n">
         <v>1.0</v>
@@ -2099,28 +2084,28 @@
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="12" t="n">
-        <v>30063.0</v>
+        <v>30066.0</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>20</v>
+      <c r="E37" s="2" t="n">
+        <v>213.0</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="G37" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I37" s="2" t="n">
         <v>1.0</v>
@@ -2134,28 +2119,28 @@
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="17" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="13" t="n">
-        <v>30066.0</v>
+        <v>30071.0</v>
       </c>
       <c r="D38" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>213.0</v>
+        <v>139.0</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>34.0</v>
+        <v>4.0</v>
       </c>
       <c r="G38" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I38" s="3" t="n">
         <v>1.0</v>
@@ -2169,22 +2154,22 @@
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C39" s="12" t="n">
-        <v>30071.0</v>
+        <v>30072.0</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>139.0</v>
+        <v>291.0</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G39" s="10" t="n">
         <v>39590.0</v>
@@ -2204,28 +2189,28 @@
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="25" t="s">
         <v>53</v>
       </c>
       <c r="C40" s="13" t="n">
-        <v>30072.0</v>
+        <v>30073.0</v>
       </c>
       <c r="D40" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>291.0</v>
+        <v>562.0</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>2.0</v>
+        <v>22.0</v>
       </c>
       <c r="G40" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I40" s="3" t="n">
         <v>1.0</v>
@@ -2239,22 +2224,22 @@
     </row>
     <row r="41">
       <c r="A41" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="12" t="n">
-        <v>30073.0</v>
+        <v>30076.0</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>562.0</v>
+        <v>314.0</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>22.0</v>
+        <v>97.0</v>
       </c>
       <c r="G41" s="10" t="n">
         <v>39590.0</v>
@@ -2274,28 +2259,28 @@
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C42" s="13" t="n">
-        <v>30076.0</v>
+        <v>30077.0</v>
       </c>
       <c r="D42" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>314.0</v>
+        <v>134.0</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>97.0</v>
+        <v>3.0</v>
       </c>
       <c r="G42" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I42" s="3" t="n">
         <v>1.0</v>
@@ -2309,28 +2294,28 @@
     </row>
     <row r="43">
       <c r="A43" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C43" s="12" t="n">
-        <v>30077.0</v>
+        <v>30080.0</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>134.0</v>
+        <v>161.0</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="G43" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>1.0</v>
@@ -2344,28 +2329,28 @@
     </row>
     <row r="44">
       <c r="A44" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C44" s="13" t="n">
-        <v>30080.0</v>
+        <v>30081.0</v>
       </c>
       <c r="D44" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E44" s="3" t="n">
-        <v>161.0</v>
+        <v>162.0</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="G44" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I44" s="3" t="n">
         <v>1.0</v>
@@ -2379,28 +2364,28 @@
     </row>
     <row r="45">
       <c r="A45" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="22" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="12" t="n">
-        <v>30081.0</v>
+        <v>30082.0</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>162.0</v>
+        <v>466.0</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="G45" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I45" s="2" t="n">
         <v>1.0</v>
@@ -2414,22 +2399,22 @@
     </row>
     <row r="46">
       <c r="A46" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>59</v>
       </c>
       <c r="C46" s="13" t="n">
-        <v>30082.0</v>
+        <v>30084.0</v>
       </c>
       <c r="D46" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E46" s="3" t="n">
-        <v>466.0</v>
+        <v>221.0</v>
       </c>
       <c r="F46" s="3" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="G46" s="11" t="n">
         <v>39590.0</v>
@@ -2449,28 +2434,28 @@
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C47" s="12" t="n">
-        <v>30084.0</v>
+        <v>30085.0</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>221.0</v>
+        <v>142.0</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="G47" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I47" s="2" t="n">
         <v>1.0</v>
@@ -2484,28 +2469,28 @@
     </row>
     <row r="48">
       <c r="A48" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C48" s="13" t="n">
-        <v>30085.0</v>
+        <v>30086.0</v>
       </c>
       <c r="D48" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E48" s="3" t="n">
-        <v>142.0</v>
+        <v>155.0</v>
       </c>
       <c r="F48" s="3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G48" s="11" t="n">
+        <v>39590.0</v>
+      </c>
+      <c r="H48" s="3" t="n">
         <v>2.0</v>
-      </c>
-      <c r="G48" s="11" t="n">
-        <v>39590.0</v>
-      </c>
-      <c r="H48" s="3" t="n">
-        <v>1.0</v>
       </c>
       <c r="I48" s="3" t="n">
         <v>1.0</v>
@@ -2519,22 +2504,22 @@
     </row>
     <row r="49">
       <c r="A49" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="12" t="n">
-        <v>30086.0</v>
+        <v>30087.0</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>155.0</v>
+        <v>202.0</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
       <c r="G49" s="10" t="n">
         <v>39590.0</v>
@@ -2554,28 +2539,28 @@
     </row>
     <row r="50">
       <c r="A50" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C50" s="13" t="n">
-        <v>30087.0</v>
+        <v>30088.0</v>
       </c>
       <c r="D50" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E50" s="3" t="n">
-        <v>202.0</v>
+        <v>133.0</v>
       </c>
       <c r="F50" s="3" t="n">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="G50" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I50" s="3" t="n">
         <v>1.0</v>
@@ -2589,28 +2574,28 @@
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="12" t="n">
-        <v>30088.0</v>
+        <v>30089.0</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>133.0</v>
+        <v>301.0</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="G51" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I51" s="2" t="n">
         <v>1.0</v>
@@ -2624,28 +2609,28 @@
     </row>
     <row r="52">
       <c r="A52" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="17" t="s">
         <v>65</v>
       </c>
       <c r="C52" s="13" t="n">
-        <v>30089.0</v>
+        <v>30090.0</v>
       </c>
       <c r="D52" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E52" s="3" t="n">
-        <v>301.0</v>
+        <v>136.0</v>
       </c>
       <c r="F52" s="3" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="G52" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I52" s="3" t="n">
         <v>1.0</v>
@@ -2659,28 +2644,28 @@
     </row>
     <row r="53">
       <c r="A53" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="14" t="s">
         <v>66</v>
       </c>
       <c r="C53" s="12" t="n">
-        <v>30090.0</v>
+        <v>30092.0</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>0.0</v>
       </c>
-      <c r="E53" s="2" t="n">
-        <v>136.0</v>
+      <c r="E53" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G53" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I53" s="2" t="n">
         <v>1.0</v>
@@ -2694,28 +2679,28 @@
     </row>
     <row r="54">
       <c r="A54" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>67</v>
       </c>
       <c r="C54" s="13" t="n">
-        <v>30092.0</v>
+        <v>30095.0</v>
       </c>
       <c r="D54" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="E54" s="9" t="s">
-        <v>20</v>
+      <c r="E54" s="3" t="n">
+        <v>235.0</v>
       </c>
       <c r="F54" s="3" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G54" s="11" t="n">
         <v>39590.0</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I54" s="3" t="n">
         <v>1.0</v>
@@ -2729,28 +2714,28 @@
     </row>
     <row r="55">
       <c r="A55" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C55" s="12" t="n">
-        <v>30095.0</v>
+        <v>30097.0</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>235.0</v>
+        <v>239.0</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="G55" s="10" t="n">
         <v>39590.0</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I55" s="2" t="n">
         <v>1.0</v>
@@ -2764,19 +2749,19 @@
     </row>
     <row r="56">
       <c r="A56" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C56" s="13" t="n">
-        <v>30097.0</v>
+        <v>30098.0</v>
       </c>
       <c r="D56" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="E56" s="3" t="n">
-        <v>239.0</v>
+        <v>214.0</v>
       </c>
       <c r="F56" s="3" t="n">
         <v>19.0</v>
@@ -2785,7 +2770,7 @@
         <v>39590.0</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I56" s="3" t="n">
         <v>1.0</v>
@@ -2794,216 +2779,6 @@
         <v>0.0</v>
       </c>
       <c r="K56" s="3" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C57" s="12" t="n">
-        <v>30098.0</v>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E57" s="2" t="n">
-        <v>214.0</v>
-      </c>
-      <c r="F57" s="2" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="G57" s="10" t="n">
-        <v>39590.0</v>
-      </c>
-      <c r="H57" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I57" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J57" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K57" s="2" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="13" t="n">
-        <v>30102.0</v>
-      </c>
-      <c r="D58" s="3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E58" s="3" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="F58" s="3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G58" s="11" t="n">
-        <v>39590.0</v>
-      </c>
-      <c r="H58" s="3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I58" s="3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J58" s="3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K58" s="3" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" s="12" t="n">
-        <v>30104.0</v>
-      </c>
-      <c r="D59" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E59" s="2" t="n">
-        <v>209.0</v>
-      </c>
-      <c r="F59" s="2" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="G59" s="10" t="n">
-        <v>39590.0</v>
-      </c>
-      <c r="H59" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I59" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J59" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K59" s="2" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="13" t="n">
-        <v>30105.0</v>
-      </c>
-      <c r="D60" s="3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E60" s="3" t="n">
-        <v>149.0</v>
-      </c>
-      <c r="F60" s="3" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G60" s="11" t="n">
-        <v>39590.0</v>
-      </c>
-      <c r="H60" s="3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I60" s="3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J60" s="3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K60" s="3" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="12" t="n">
-        <v>30110.0</v>
-      </c>
-      <c r="D61" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E61" s="2" t="n">
-        <v>374.0</v>
-      </c>
-      <c r="F61" s="2" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="G61" s="10" t="n">
-        <v>39590.0</v>
-      </c>
-      <c r="H61" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I61" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J61" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K61" s="2" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" s="13" t="n">
-        <v>30111.0</v>
-      </c>
-      <c r="D62" s="3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E62" s="3" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="F62" s="3" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G62" s="11" t="n">
-        <v>39590.0</v>
-      </c>
-      <c r="H62" s="3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I62" s="3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J62" s="3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K62" s="3" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -3064,12 +2839,6 @@
     <hyperlink ref="C54" r:id="rId53"/>
     <hyperlink ref="C55" r:id="rId54"/>
     <hyperlink ref="C56" r:id="rId55"/>
-    <hyperlink ref="C57" r:id="rId56"/>
-    <hyperlink ref="C58" r:id="rId57"/>
-    <hyperlink ref="C59" r:id="rId58"/>
-    <hyperlink ref="C60" r:id="rId59"/>
-    <hyperlink ref="C61" r:id="rId60"/>
-    <hyperlink ref="C62" r:id="rId61"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
